--- a/docs/KOSTAL_ModBus_Specifications.xlsx
+++ b/docs/KOSTAL_ModBus_Specifications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Symcon\modules\JoT.KPP\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A8132A-D3A3-4486-95A3-1205B73123F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654A9FEF-214A-4DD7-93DA-0BE1AAC61B6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="20" windowWidth="18960" windowHeight="11330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3003,8 +3003,8 @@
   <dimension ref="A1:L152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E135" sqref="E135"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3269,9 +3269,7 @@
       <c r="G9" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H9" s="19">
-        <v>0</v>
-      </c>
+      <c r="H9" s="19"/>
       <c r="I9" s="24">
         <v>1</v>
       </c>
@@ -3303,9 +3301,7 @@
       <c r="G10" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="19">
-        <v>0</v>
-      </c>
+      <c r="H10" s="19"/>
       <c r="I10" s="24">
         <v>1</v>
       </c>
@@ -3337,9 +3333,7 @@
       <c r="G11" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H11" s="19">
-        <v>0</v>
-      </c>
+      <c r="H11" s="19"/>
       <c r="I11" s="24">
         <v>1</v>
       </c>
@@ -3371,9 +3365,7 @@
       <c r="G12" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="19">
-        <v>0</v>
-      </c>
+      <c r="H12" s="19"/>
       <c r="I12" s="24">
         <v>8</v>
       </c>
@@ -3403,9 +3395,7 @@
       <c r="G13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="19">
-        <v>0</v>
-      </c>
+      <c r="H13" s="19"/>
       <c r="I13" s="24">
         <v>8</v>
       </c>
@@ -3435,9 +3425,7 @@
       <c r="G14" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="19">
-        <v>1</v>
-      </c>
+      <c r="H14" s="19"/>
       <c r="I14" s="24">
         <v>1</v>
       </c>
@@ -3467,9 +3455,7 @@
       <c r="G15" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="19">
-        <v>1</v>
-      </c>
+      <c r="H15" s="19"/>
       <c r="I15" s="24">
         <v>1</v>
       </c>
@@ -3499,9 +3485,7 @@
       <c r="G16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="19">
-        <v>1</v>
-      </c>
+      <c r="H16" s="19"/>
       <c r="I16" s="24">
         <v>1</v>
       </c>
@@ -3531,9 +3515,7 @@
       <c r="G17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H17" s="19">
-        <v>0</v>
-      </c>
+      <c r="H17" s="19"/>
       <c r="I17" s="24">
         <v>2</v>
       </c>
@@ -3563,9 +3545,7 @@
       <c r="G18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H18" s="19">
-        <v>0</v>
-      </c>
+      <c r="H18" s="19"/>
       <c r="I18" s="24">
         <v>8</v>
       </c>
@@ -3595,9 +3575,7 @@
       <c r="G19" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H19" s="19">
-        <v>0</v>
-      </c>
+      <c r="H19" s="19"/>
       <c r="I19" s="24">
         <v>8</v>
       </c>
@@ -3627,9 +3605,7 @@
       <c r="G20" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="19">
-        <v>0</v>
-      </c>
+      <c r="H20" s="19"/>
       <c r="I20" s="24">
         <v>2</v>
       </c>
@@ -3661,9 +3637,7 @@
       <c r="G21" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H21" s="19">
-        <v>0</v>
-      </c>
+      <c r="H21" s="19"/>
       <c r="I21" s="24">
         <v>2</v>
       </c>
@@ -3729,9 +3703,7 @@
       <c r="G23" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H23" s="19">
-        <v>0</v>
-      </c>
+      <c r="H23" s="19"/>
       <c r="I23" s="24">
         <v>2</v>
       </c>
@@ -3999,9 +3971,7 @@
       <c r="G31" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H31" s="19">
-        <v>1</v>
-      </c>
+      <c r="H31" s="19"/>
       <c r="I31" s="24">
         <v>2</v>
       </c>
@@ -4033,9 +4003,7 @@
       <c r="G32" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H32" s="19">
-        <v>1</v>
-      </c>
+      <c r="H32" s="19"/>
       <c r="I32" s="24">
         <v>2</v>
       </c>
@@ -4067,9 +4035,7 @@
       <c r="G33" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H33" s="19">
-        <v>1</v>
-      </c>
+      <c r="H33" s="19"/>
       <c r="I33" s="24">
         <v>2</v>
       </c>
@@ -4099,9 +4065,7 @@
       <c r="G34" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H34" s="19">
-        <v>1</v>
-      </c>
+      <c r="H34" s="19"/>
       <c r="I34" s="24">
         <v>2</v>
       </c>
@@ -4131,9 +4095,7 @@
       <c r="G35" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H35" s="19">
-        <v>1</v>
-      </c>
+      <c r="H35" s="19"/>
       <c r="I35" s="24">
         <v>2</v>
       </c>
@@ -4165,9 +4127,7 @@
       <c r="G36" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H36" s="19">
-        <v>1</v>
-      </c>
+      <c r="H36" s="19"/>
       <c r="I36" s="24">
         <v>2</v>
       </c>
@@ -4199,9 +4159,7 @@
       <c r="G37" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H37" s="19">
-        <v>1</v>
-      </c>
+      <c r="H37" s="19"/>
       <c r="I37" s="24">
         <v>2</v>
       </c>
@@ -4267,9 +4225,7 @@
       <c r="G39" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H39" s="19">
-        <v>1</v>
-      </c>
+      <c r="H39" s="19"/>
       <c r="I39" s="24">
         <v>2</v>
       </c>
@@ -4301,9 +4257,7 @@
       <c r="G40" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H40" s="19">
-        <v>1</v>
-      </c>
+      <c r="H40" s="19"/>
       <c r="I40" s="24">
         <v>2</v>
       </c>
@@ -4369,9 +4323,7 @@
       <c r="G42" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H42" s="19">
-        <v>1</v>
-      </c>
+      <c r="H42" s="19"/>
       <c r="I42" s="24">
         <v>2</v>
       </c>
@@ -4403,9 +4355,7 @@
       <c r="G43" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H43" s="19">
-        <v>1</v>
-      </c>
+      <c r="H43" s="19"/>
       <c r="I43" s="24">
         <v>2</v>
       </c>
@@ -4471,9 +4421,7 @@
       <c r="G45" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H45" s="19">
-        <v>1</v>
-      </c>
+      <c r="H45" s="19"/>
       <c r="I45" s="24">
         <v>2</v>
       </c>
@@ -4607,9 +4555,7 @@
       <c r="G49" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H49" s="19">
-        <v>1</v>
-      </c>
+      <c r="H49" s="19"/>
       <c r="I49" s="24">
         <v>2</v>
       </c>
@@ -4639,9 +4585,7 @@
       <c r="G50" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H50" s="19">
-        <v>1</v>
-      </c>
+      <c r="H50" s="19"/>
       <c r="I50" s="24">
         <v>2</v>
       </c>
@@ -4673,9 +4617,7 @@
       <c r="G51" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H51" s="19">
-        <v>1</v>
-      </c>
+      <c r="H51" s="19"/>
       <c r="I51" s="24">
         <v>2</v>
       </c>
@@ -4707,9 +4649,7 @@
       <c r="G52" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H52" s="19">
-        <v>0</v>
-      </c>
+      <c r="H52" s="19"/>
       <c r="I52" s="24">
         <v>2</v>
       </c>
@@ -4739,9 +4679,7 @@
       <c r="G53" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H53" s="19">
-        <v>0</v>
-      </c>
+      <c r="H53" s="19"/>
       <c r="I53" s="24">
         <v>2</v>
       </c>
@@ -4773,9 +4711,7 @@
       <c r="G54" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H54" s="19">
-        <v>1</v>
-      </c>
+      <c r="H54" s="19"/>
       <c r="I54" s="24">
         <v>2</v>
       </c>
@@ -4807,9 +4743,7 @@
       <c r="G55" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H55" s="19">
-        <v>1</v>
-      </c>
+      <c r="H55" s="19"/>
       <c r="I55" s="24">
         <v>2</v>
       </c>
@@ -4841,9 +4775,7 @@
       <c r="G56" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H56" s="19">
-        <v>1</v>
-      </c>
+      <c r="H56" s="19"/>
       <c r="I56" s="24">
         <v>2</v>
       </c>
@@ -4873,9 +4805,7 @@
       <c r="G57" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H57" s="19">
-        <v>1</v>
-      </c>
+      <c r="H57" s="19"/>
       <c r="I57" s="24">
         <v>2</v>
       </c>
@@ -4907,9 +4837,7 @@
       <c r="G58" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H58" s="19">
-        <v>1</v>
-      </c>
+      <c r="H58" s="19"/>
       <c r="I58" s="24">
         <v>2</v>
       </c>
@@ -4941,9 +4869,7 @@
       <c r="G59" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H59" s="19">
-        <v>1</v>
-      </c>
+      <c r="H59" s="19"/>
       <c r="I59" s="24">
         <v>2</v>
       </c>
@@ -5077,9 +5003,7 @@
       <c r="G63" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H63" s="19">
-        <v>1</v>
-      </c>
+      <c r="H63" s="19"/>
       <c r="I63" s="24">
         <v>2</v>
       </c>
@@ -5111,9 +5035,7 @@
       <c r="G64" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H64" s="19">
-        <v>1</v>
-      </c>
+      <c r="H64" s="19"/>
       <c r="I64" s="24">
         <v>2</v>
       </c>
@@ -5247,9 +5169,7 @@
       <c r="G68" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H68" s="19">
-        <v>1</v>
-      </c>
+      <c r="H68" s="19"/>
       <c r="I68" s="24">
         <v>2</v>
       </c>
@@ -5281,9 +5201,7 @@
       <c r="G69" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H69" s="19">
-        <v>1</v>
-      </c>
+      <c r="H69" s="19"/>
       <c r="I69" s="24">
         <v>2</v>
       </c>
@@ -5417,9 +5335,7 @@
       <c r="G73" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H73" s="19">
-        <v>1</v>
-      </c>
+      <c r="H73" s="19"/>
       <c r="I73" s="24">
         <v>2</v>
       </c>
@@ -5553,9 +5469,7 @@
       <c r="G77" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H77" s="19">
-        <v>1</v>
-      </c>
+      <c r="H77" s="19"/>
       <c r="I77" s="24">
         <v>2</v>
       </c>
@@ -5621,9 +5535,7 @@
       <c r="G79" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H79" s="19">
-        <v>1</v>
-      </c>
+      <c r="H79" s="19"/>
       <c r="I79" s="24">
         <v>2</v>
       </c>
@@ -5655,9 +5567,7 @@
       <c r="G80" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H80" s="19">
-        <v>1</v>
-      </c>
+      <c r="H80" s="19"/>
       <c r="I80" s="24">
         <v>2</v>
       </c>
@@ -5723,9 +5633,7 @@
       <c r="G82" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H82" s="19">
-        <v>1</v>
-      </c>
+      <c r="H82" s="19"/>
       <c r="I82" s="24">
         <v>2</v>
       </c>
@@ -5757,9 +5665,7 @@
       <c r="G83" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H83" s="19">
-        <v>1</v>
-      </c>
+      <c r="H83" s="19"/>
       <c r="I83" s="24">
         <v>2</v>
       </c>
@@ -5825,9 +5731,7 @@
       <c r="G85" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H85" s="19">
-        <v>1</v>
-      </c>
+      <c r="H85" s="19"/>
       <c r="I85" s="24">
         <v>2</v>
       </c>
@@ -5993,9 +5897,7 @@
       <c r="G90" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H90" s="19">
-        <v>0</v>
-      </c>
+      <c r="H90" s="19"/>
       <c r="I90" s="24">
         <v>32</v>
       </c>
@@ -6025,9 +5927,7 @@
       <c r="G91" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H91" s="19">
-        <v>0</v>
-      </c>
+      <c r="H91" s="19"/>
       <c r="I91" s="24">
         <v>1</v>
       </c>
@@ -6057,9 +5957,7 @@
       <c r="G92" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H92" s="19">
-        <v>0</v>
-      </c>
+      <c r="H92" s="19"/>
       <c r="I92" s="24">
         <v>1</v>
       </c>
@@ -6089,9 +5987,7 @@
       <c r="G93" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H93" s="19">
-        <v>0</v>
-      </c>
+      <c r="H93" s="19"/>
       <c r="I93" s="24">
         <v>8</v>
       </c>
@@ -6121,9 +6017,7 @@
       <c r="G94" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H94" s="19">
-        <v>0</v>
-      </c>
+      <c r="H94" s="19"/>
       <c r="I94" s="24">
         <v>8</v>
       </c>
@@ -6153,9 +6047,7 @@
       <c r="G95" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H95" s="19">
-        <v>0</v>
-      </c>
+      <c r="H95" s="19"/>
       <c r="I95" s="24">
         <v>8</v>
       </c>
@@ -6185,9 +6077,7 @@
       <c r="G96" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H96" s="19">
-        <v>0</v>
-      </c>
+      <c r="H96" s="19"/>
       <c r="I96" s="24">
         <v>1</v>
       </c>
@@ -6217,9 +6107,7 @@
       <c r="G97" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H97" s="19">
-        <v>0</v>
-      </c>
+      <c r="H97" s="19"/>
       <c r="I97" s="24">
         <v>8</v>
       </c>
@@ -6249,9 +6137,7 @@
       <c r="G98" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H98" s="19">
-        <v>0</v>
-      </c>
+      <c r="H98" s="19"/>
       <c r="I98" s="24">
         <v>8</v>
       </c>
@@ -6283,9 +6169,7 @@
       <c r="G99" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H99" s="19">
-        <v>0</v>
-      </c>
+      <c r="H99" s="19"/>
       <c r="I99" s="24">
         <v>2</v>
       </c>
@@ -6317,9 +6201,7 @@
       <c r="G100" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H100" s="19">
-        <v>0</v>
-      </c>
+      <c r="H100" s="19"/>
       <c r="I100" s="24">
         <v>1</v>
       </c>
@@ -6349,9 +6231,7 @@
       <c r="G101" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H101" s="19">
-        <v>0</v>
-      </c>
+      <c r="H101" s="19"/>
       <c r="I101" s="24">
         <v>2</v>
       </c>
@@ -6381,9 +6261,7 @@
       <c r="G102" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H102" s="19">
-        <v>0</v>
-      </c>
+      <c r="H102" s="19"/>
       <c r="I102" s="24">
         <v>8</v>
       </c>
@@ -6413,9 +6291,7 @@
       <c r="G103" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H103" s="19">
-        <v>0</v>
-      </c>
+      <c r="H103" s="19"/>
       <c r="I103" s="24">
         <v>2</v>
       </c>
@@ -6445,9 +6321,7 @@
       <c r="G104" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H104" s="19">
-        <v>0</v>
-      </c>
+      <c r="H104" s="19"/>
       <c r="I104" s="24">
         <v>2</v>
       </c>
@@ -6547,9 +6421,7 @@
       <c r="G107" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H107" s="19">
-        <v>1</v>
-      </c>
+      <c r="H107" s="19"/>
       <c r="I107" s="24">
         <v>1</v>
       </c>
@@ -6581,9 +6453,7 @@
       <c r="G108" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H108" s="19">
-        <v>0</v>
-      </c>
+      <c r="H108" s="19"/>
       <c r="I108" s="24">
         <v>1</v>
       </c>
@@ -6613,9 +6483,7 @@
       <c r="G109" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H109" s="19">
-        <v>0</v>
-      </c>
+      <c r="H109" s="19"/>
       <c r="I109" s="24">
         <v>16</v>
       </c>
@@ -6645,9 +6513,7 @@
       <c r="G110" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H110" s="19">
-        <v>0</v>
-      </c>
+      <c r="H110" s="19"/>
       <c r="I110" s="24">
         <v>16</v>
       </c>
@@ -6713,9 +6579,7 @@
       <c r="G112" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H112" s="19">
-        <v>1</v>
-      </c>
+      <c r="H112" s="19"/>
       <c r="I112" s="24">
         <v>1</v>
       </c>
@@ -6781,9 +6645,7 @@
       <c r="G114" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H114" s="19">
-        <v>1</v>
-      </c>
+      <c r="H114" s="19"/>
       <c r="I114" s="24">
         <v>1</v>
       </c>
@@ -6849,9 +6711,7 @@
       <c r="G116" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H116" s="19">
-        <v>0</v>
-      </c>
+      <c r="H116" s="19"/>
       <c r="I116" s="24">
         <v>1</v>
       </c>
@@ -6881,9 +6741,7 @@
       <c r="G117" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H117" s="19">
-        <v>0</v>
-      </c>
+      <c r="H117" s="19"/>
       <c r="I117" s="24">
         <v>1</v>
       </c>
@@ -6913,9 +6771,7 @@
       <c r="G118" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H118" s="19">
-        <v>0</v>
-      </c>
+      <c r="H118" s="19"/>
       <c r="I118" s="24">
         <v>1</v>
       </c>
@@ -6947,9 +6803,7 @@
       <c r="G119" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H119" s="19">
-        <v>0</v>
-      </c>
+      <c r="H119" s="19"/>
       <c r="I119" s="24">
         <v>1</v>
       </c>
@@ -6979,9 +6833,7 @@
       <c r="G120" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H120" s="19">
-        <v>0</v>
-      </c>
+      <c r="H120" s="19"/>
       <c r="I120" s="24">
         <v>32</v>
       </c>
@@ -7011,9 +6863,7 @@
       <c r="G121" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H121" s="19">
-        <v>0</v>
-      </c>
+      <c r="H121" s="19"/>
       <c r="I121" s="24">
         <v>32</v>
       </c>
@@ -7079,9 +6929,7 @@
       <c r="G123" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H123" s="20">
-        <v>1</v>
-      </c>
+      <c r="H123" s="20"/>
       <c r="I123" s="24">
         <v>1</v>
       </c>
@@ -7147,9 +6995,7 @@
       <c r="G125" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H125" s="20">
-        <v>1</v>
-      </c>
+      <c r="H125" s="20"/>
       <c r="I125" s="24">
         <v>1</v>
       </c>
@@ -7217,9 +7063,7 @@
       <c r="G127" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="H127" s="20">
-        <v>1</v>
-      </c>
+      <c r="H127" s="20"/>
       <c r="I127" s="24">
         <v>2</v>
       </c>
@@ -7253,9 +7097,7 @@
       <c r="G128" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="H128" s="20">
-        <v>1</v>
-      </c>
+      <c r="H128" s="20"/>
       <c r="I128" s="24">
         <v>2</v>
       </c>
@@ -7289,9 +7131,7 @@
       <c r="G129" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="H129" s="20">
-        <v>1</v>
-      </c>
+      <c r="H129" s="20"/>
       <c r="I129" s="24">
         <v>2</v>
       </c>
@@ -7361,9 +7201,7 @@
       <c r="G131" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="H131" s="20">
-        <v>1</v>
-      </c>
+      <c r="H131" s="20"/>
       <c r="I131" s="24">
         <v>2</v>
       </c>
@@ -7469,9 +7307,7 @@
       <c r="G134" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="H134" s="20">
-        <v>1</v>
-      </c>
+      <c r="H134" s="20"/>
       <c r="I134" s="24">
         <v>2</v>
       </c>
@@ -7505,9 +7341,7 @@
       <c r="G135" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="H135" s="20">
-        <v>1</v>
-      </c>
+      <c r="H135" s="20"/>
       <c r="I135" s="24">
         <v>2</v>
       </c>
@@ -7947,9 +7781,7 @@
       <c r="G148" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H148" s="20">
-        <v>0</v>
-      </c>
+      <c r="H148" s="20"/>
       <c r="I148" s="24">
         <v>2</v>
       </c>
@@ -8047,9 +7879,7 @@
       <c r="G151" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H151" s="20">
-        <v>0</v>
-      </c>
+      <c r="H151" s="20"/>
       <c r="I151" s="24">
         <v>1</v>
       </c>
@@ -8081,9 +7911,7 @@
       <c r="G152" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H152" s="19">
-        <v>0</v>
-      </c>
+      <c r="H152" s="19"/>
       <c r="I152" s="23">
         <v>1</v>
       </c>

--- a/docs/KOSTAL_ModBus_Specifications.xlsx
+++ b/docs/KOSTAL_ModBus_Specifications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Symcon\modules\JoT.KPP\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654A9FEF-214A-4DD7-93DA-0BE1AAC61B6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4DE1E7-5D98-4F6B-BD0E-B5FC910D03B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="20" windowWidth="18960" windowHeight="11330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="354">
   <si>
     <r>
       <rPr>
@@ -3004,7 +3004,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3276,9 +3276,7 @@
       <c r="J9" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="K9" s="3"/>
       <c r="L9" s="5">
         <v>1.44</v>
       </c>
@@ -3308,9 +3306,7 @@
       <c r="J10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="K10" s="3"/>
       <c r="L10" s="5">
         <v>1.44</v>
       </c>
@@ -3340,9 +3336,7 @@
       <c r="J11" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="K11" s="3"/>
       <c r="L11" s="5">
         <v>1.44</v>
       </c>

--- a/docs/KOSTAL_ModBus_Specifications.xlsx
+++ b/docs/KOSTAL_ModBus_Specifications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Symcon\modules\JoT.KPP\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4DE1E7-5D98-4F6B-BD0E-B5FC910D03B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0C1DE8-7710-4A14-8B1E-314474F56D3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="20" windowWidth="18960" windowHeight="11330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,12 +38,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{1A14E858-7F55-4423-B8E1-4A90AD40404B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nur angeben wenn abweichend von Standard des WR</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="356">
   <si>
     <r>
       <rPr>
@@ -1720,9 +1734,6 @@
     <t>EMState</t>
   </si>
   <si>
-    <t>Energy Manager state</t>
-  </si>
-  <si>
     <t>ModBus enabled</t>
   </si>
   <si>
@@ -1742,6 +1753,15 @@
   </si>
   <si>
     <t>Battery max. SOC</t>
+  </si>
+  <si>
+    <t>Battery Energy Manager state</t>
+  </si>
+  <si>
+    <t>MBType</t>
+  </si>
+  <si>
+    <t>$MB_BigEndian</t>
   </si>
 </sst>
 </file>
@@ -1752,7 +1772,7 @@
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
     <numFmt numFmtId="165" formatCode="0.000;[Red]0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1776,6 +1796,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
@@ -1902,7 +1929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1999,11 +2026,117 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.000;[Red]0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFEBEDED"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFEBEDED"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFEBEDED"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFEBEDED"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2582,66 +2715,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2656,24 +2729,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{891475A2-4FB2-4681-B914-8DF59649A8A5}" name="Tabelle1" displayName="Tabelle1" ref="A1:L152" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:L152" xr:uid="{67CFC5ED-3DF2-4325-8BB0-7109E22EA653}"/>
-  <sortState ref="A2:L152">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{891475A2-4FB2-4681-B914-8DF59649A8A5}" name="Tabelle1" displayName="Tabelle1" ref="A1:M152" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="A1:M152" xr:uid="{67CFC5ED-3DF2-4325-8BB0-7109E22EA653}"/>
+  <sortState ref="A2:M152">
     <sortCondition ref="A1:A152"/>
   </sortState>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{9997AB42-D315-4920-ABD3-63BF9B542479}" name="Address" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{67E022DD-FFB2-4554-9D80-29B6AA2D8BF9}" name="Group" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{F9B93E8D-86B3-4B2B-B0F3-37EFA4BAC80F}" name="Ident" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{19AE23B1-4B73-425D-B057-6DA5633287A1}" name="ScaleIdent" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{D4274189-8352-4237-A5EC-8978C7CCE623}" name="Name" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{3F315A03-DBBC-4EEE-A147-0CD65AD4C555}" name="Profile" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{F24BF87B-55D8-49EA-83E7-DF00F2B87F83}" name="VarType" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{F1CAE169-D78E-4F13-925D-EB394D9C70FB}" name="Factor" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{B12D7364-1EDB-440B-9FC2-31E2C3FADF6E}" name="Quantity" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{9769FDF8-F134-4F7D-97E0-9FB704DEDEAF}" name="RFunction" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{2697D931-01F8-4871-AA39-B743702F9207}" name="WFunction" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{370C0678-26F2-4D02-BE87-0190FE344869}" name="FWVersion" dataDxfId="0"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{9997AB42-D315-4920-ABD3-63BF9B542479}" name="Address" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{67E022DD-FFB2-4554-9D80-29B6AA2D8BF9}" name="Group" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{F9B93E8D-86B3-4B2B-B0F3-37EFA4BAC80F}" name="Ident" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{19AE23B1-4B73-425D-B057-6DA5633287A1}" name="ScaleIdent" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{D4274189-8352-4237-A5EC-8978C7CCE623}" name="Name" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{3F315A03-DBBC-4EEE-A147-0CD65AD4C555}" name="Profile" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{F24BF87B-55D8-49EA-83E7-DF00F2B87F83}" name="VarType" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{F1CAE169-D78E-4F13-925D-EB394D9C70FB}" name="Factor" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{8C62C676-2CC7-4D4C-B133-9A861FB7819C}" name="MBType" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{B12D7364-1EDB-440B-9FC2-31E2C3FADF6E}" name="Quantity" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{9769FDF8-F134-4F7D-97E0-9FB704DEDEAF}" name="RFunction" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{2697D931-01F8-4871-AA39-B743702F9207}" name="WFunction" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{370C0678-26F2-4D02-BE87-0190FE344869}" name="FWVersion" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3000,11 +3074,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:L152"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3017,13 +3091,14 @@
     <col min="6" max="6" width="16.6328125" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="7.90625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" style="17" customWidth="1"/>
-    <col min="10" max="10" width="25.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.54296875" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="9" max="9" width="24.1796875" style="21" customWidth="1"/>
+    <col min="10" max="10" width="8.54296875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.54296875" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>91</v>
       </c>
@@ -3048,20 +3123,23 @@
       <c r="H1" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>0</v>
       </c>
@@ -3082,14 +3160,15 @@
         <v>111</v>
       </c>
       <c r="H2" s="19"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="3"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="3"/>
+      <c r="M2" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>0</v>
       </c>
@@ -3110,14 +3189,15 @@
         <v>113</v>
       </c>
       <c r="H3" s="19"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="3"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="9">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="3"/>
+      <c r="M3" s="9">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>0</v>
       </c>
@@ -3138,14 +3218,15 @@
         <v>113</v>
       </c>
       <c r="H4" s="19"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="23"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="9">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L4" s="3"/>
+      <c r="M4" s="9">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>0</v>
       </c>
@@ -3166,14 +3247,15 @@
         <v>111</v>
       </c>
       <c r="H5" s="19"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="9">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L5" s="3"/>
+      <c r="M5" s="9">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>0</v>
       </c>
@@ -3192,14 +3274,15 @@
         <v>113</v>
       </c>
       <c r="H6" s="19"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="3"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="23"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="9">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L6" s="3"/>
+      <c r="M6" s="9">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>0</v>
       </c>
@@ -3218,14 +3301,15 @@
         <v>113</v>
       </c>
       <c r="H7" s="19"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="3"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="9">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L7" s="3"/>
+      <c r="M7" s="9">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>0</v>
       </c>
@@ -3244,14 +3328,15 @@
         <v>113</v>
       </c>
       <c r="H8" s="19"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="3"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="9">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L8" s="3"/>
+      <c r="M8" s="9">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>2</v>
       </c>
@@ -3263,25 +3348,26 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="3" t="s">
         <v>110</v>
       </c>
       <c r="H9" s="19"/>
-      <c r="I9" s="24">
+      <c r="I9" s="19"/>
+      <c r="J9" s="24">
         <v>1</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="5">
+      <c r="K9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>4</v>
       </c>
@@ -3293,25 +3379,26 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="3" t="s">
         <v>113</v>
       </c>
       <c r="H10" s="19"/>
-      <c r="I10" s="24">
+      <c r="I10" s="19"/>
+      <c r="J10" s="24">
         <v>1</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="5">
+      <c r="K10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>5</v>
       </c>
@@ -3323,25 +3410,26 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="3" t="s">
         <v>113</v>
       </c>
       <c r="H11" s="19"/>
-      <c r="I11" s="24">
+      <c r="I11" s="19"/>
+      <c r="J11" s="24">
         <v>1</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="5">
+      <c r="K11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <v>6</v>
       </c>
@@ -3360,18 +3448,21 @@
         <v>115</v>
       </c>
       <c r="H12" s="19"/>
-      <c r="I12" s="24">
+      <c r="I12" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="J12" s="24">
         <v>8</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <v>14</v>
       </c>
@@ -3390,18 +3481,21 @@
         <v>115</v>
       </c>
       <c r="H13" s="19"/>
-      <c r="I13" s="24">
+      <c r="I13" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="J13" s="24">
         <v>8</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <v>30</v>
       </c>
@@ -3420,18 +3514,19 @@
         <v>113</v>
       </c>
       <c r="H14" s="19"/>
-      <c r="I14" s="24">
+      <c r="I14" s="19"/>
+      <c r="J14" s="24">
         <v>1</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <v>32</v>
       </c>
@@ -3450,18 +3545,19 @@
         <v>113</v>
       </c>
       <c r="H15" s="19"/>
-      <c r="I15" s="24">
+      <c r="I15" s="19"/>
+      <c r="J15" s="24">
         <v>1</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <v>34</v>
       </c>
@@ -3480,18 +3576,19 @@
         <v>113</v>
       </c>
       <c r="H16" s="19"/>
-      <c r="I16" s="24">
+      <c r="I16" s="19"/>
+      <c r="J16" s="24">
         <v>1</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <v>36</v>
       </c>
@@ -3510,18 +3607,19 @@
         <v>113</v>
       </c>
       <c r="H17" s="19"/>
-      <c r="I17" s="24">
-        <v>2</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I17" s="19"/>
+      <c r="J17" s="24">
+        <v>2</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <v>38</v>
       </c>
@@ -3540,18 +3638,21 @@
         <v>115</v>
       </c>
       <c r="H18" s="19"/>
-      <c r="I18" s="24">
+      <c r="I18" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="J18" s="24">
         <v>8</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <v>46</v>
       </c>
@@ -3570,18 +3671,21 @@
         <v>115</v>
       </c>
       <c r="H19" s="19"/>
-      <c r="I19" s="24">
+      <c r="I19" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="J19" s="24">
         <v>8</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
         <v>54</v>
       </c>
@@ -3600,18 +3704,19 @@
         <v>113</v>
       </c>
       <c r="H20" s="19"/>
-      <c r="I20" s="24">
-        <v>2</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="19"/>
+      <c r="J20" s="24">
+        <v>2</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
         <v>56</v>
       </c>
@@ -3632,18 +3737,19 @@
         <v>113</v>
       </c>
       <c r="H21" s="19"/>
-      <c r="I21" s="24">
-        <v>2</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I21" s="19"/>
+      <c r="J21" s="24">
+        <v>2</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
         <v>100</v>
       </c>
@@ -3666,18 +3772,19 @@
       <c r="H22" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I22" s="24">
-        <v>2</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="19"/>
+      <c r="J22" s="24">
+        <v>2</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
         <v>104</v>
       </c>
@@ -3689,7 +3796,7 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>128</v>
@@ -3698,18 +3805,21 @@
         <v>113</v>
       </c>
       <c r="H23" s="19"/>
-      <c r="I23" s="24">
-        <v>2</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="J23" s="24">
+        <v>2</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
         <v>106</v>
       </c>
@@ -3732,18 +3842,19 @@
       <c r="H24" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I24" s="24">
-        <v>2</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="19"/>
+      <c r="J24" s="24">
+        <v>2</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
         <v>108</v>
       </c>
@@ -3766,18 +3877,19 @@
       <c r="H25" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I25" s="24">
-        <v>2</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="19"/>
+      <c r="J25" s="24">
+        <v>2</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
         <v>110</v>
       </c>
@@ -3800,18 +3912,19 @@
       <c r="H26" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I26" s="24">
-        <v>2</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I26" s="19"/>
+      <c r="J26" s="24">
+        <v>2</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
         <v>112</v>
       </c>
@@ -3834,18 +3947,19 @@
       <c r="H27" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I27" s="24">
-        <v>2</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I27" s="19"/>
+      <c r="J27" s="24">
+        <v>2</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
         <v>114</v>
       </c>
@@ -3868,18 +3982,19 @@
       <c r="H28" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I28" s="24">
-        <v>2</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I28" s="19"/>
+      <c r="J28" s="24">
+        <v>2</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
         <v>116</v>
       </c>
@@ -3902,18 +4017,19 @@
       <c r="H29" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I29" s="24">
-        <v>2</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I29" s="19"/>
+      <c r="J29" s="24">
+        <v>2</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
         <v>118</v>
       </c>
@@ -3936,18 +4052,19 @@
       <c r="H30" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I30" s="24">
-        <v>2</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I30" s="19"/>
+      <c r="J30" s="24">
+        <v>2</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
         <v>120</v>
       </c>
@@ -3966,18 +4083,19 @@
         <v>111</v>
       </c>
       <c r="H31" s="19"/>
-      <c r="I31" s="24">
-        <v>2</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I31" s="19"/>
+      <c r="J31" s="24">
+        <v>2</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
         <v>122</v>
       </c>
@@ -3998,18 +4116,19 @@
         <v>111</v>
       </c>
       <c r="H32" s="19"/>
-      <c r="I32" s="24">
-        <v>2</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I32" s="19"/>
+      <c r="J32" s="24">
+        <v>2</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L32" s="4"/>
+      <c r="M32" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
         <v>124</v>
       </c>
@@ -4030,18 +4149,19 @@
         <v>111</v>
       </c>
       <c r="H33" s="19"/>
-      <c r="I33" s="24">
-        <v>2</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I33" s="19"/>
+      <c r="J33" s="24">
+        <v>2</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
         <v>144</v>
       </c>
@@ -4060,18 +4180,19 @@
         <v>111</v>
       </c>
       <c r="H34" s="19"/>
-      <c r="I34" s="24">
-        <v>2</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I34" s="19"/>
+      <c r="J34" s="24">
+        <v>2</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L34" s="4"/>
+      <c r="M34" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="15">
         <v>150</v>
       </c>
@@ -4090,18 +4211,19 @@
         <v>111</v>
       </c>
       <c r="H35" s="19"/>
-      <c r="I35" s="24">
-        <v>2</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I35" s="19"/>
+      <c r="J35" s="24">
+        <v>2</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
         <v>152</v>
       </c>
@@ -4122,18 +4244,19 @@
         <v>111</v>
       </c>
       <c r="H36" s="19"/>
-      <c r="I36" s="24">
-        <v>2</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I36" s="19"/>
+      <c r="J36" s="24">
+        <v>2</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="15">
         <v>154</v>
       </c>
@@ -4154,18 +4277,19 @@
         <v>111</v>
       </c>
       <c r="H37" s="19"/>
-      <c r="I37" s="24">
-        <v>2</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I37" s="19"/>
+      <c r="J37" s="24">
+        <v>2</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="15">
         <v>156</v>
       </c>
@@ -4188,18 +4312,19 @@
       <c r="H38" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I38" s="24">
-        <v>2</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K38" s="4"/>
-      <c r="L38" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I38" s="19"/>
+      <c r="J38" s="24">
+        <v>2</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="15">
         <v>158</v>
       </c>
@@ -4220,18 +4345,19 @@
         <v>111</v>
       </c>
       <c r="H39" s="19"/>
-      <c r="I39" s="24">
-        <v>2</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K39" s="4"/>
-      <c r="L39" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I39" s="19"/>
+      <c r="J39" s="24">
+        <v>2</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
         <v>160</v>
       </c>
@@ -4252,18 +4378,19 @@
         <v>111</v>
       </c>
       <c r="H40" s="19"/>
-      <c r="I40" s="24">
-        <v>2</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K40" s="4"/>
-      <c r="L40" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I40" s="19"/>
+      <c r="J40" s="24">
+        <v>2</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="15">
         <v>162</v>
       </c>
@@ -4286,18 +4413,19 @@
       <c r="H41" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I41" s="24">
-        <v>2</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K41" s="4"/>
-      <c r="L41" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I41" s="19"/>
+      <c r="J41" s="24">
+        <v>2</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="15">
         <v>164</v>
       </c>
@@ -4318,18 +4446,19 @@
         <v>111</v>
       </c>
       <c r="H42" s="19"/>
-      <c r="I42" s="24">
-        <v>2</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K42" s="4"/>
-      <c r="L42" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I42" s="19"/>
+      <c r="J42" s="24">
+        <v>2</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L42" s="4"/>
+      <c r="M42" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="15">
         <v>166</v>
       </c>
@@ -4350,18 +4479,19 @@
         <v>111</v>
       </c>
       <c r="H43" s="19"/>
-      <c r="I43" s="24">
-        <v>2</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K43" s="4"/>
-      <c r="L43" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I43" s="19"/>
+      <c r="J43" s="24">
+        <v>2</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L43" s="4"/>
+      <c r="M43" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="15">
         <v>168</v>
       </c>
@@ -4384,18 +4514,19 @@
       <c r="H44" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I44" s="24">
-        <v>2</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K44" s="4"/>
-      <c r="L44" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I44" s="19"/>
+      <c r="J44" s="24">
+        <v>2</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L44" s="4"/>
+      <c r="M44" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="15">
         <v>170</v>
       </c>
@@ -4416,18 +4547,19 @@
         <v>111</v>
       </c>
       <c r="H45" s="19"/>
-      <c r="I45" s="24">
-        <v>2</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K45" s="4"/>
-      <c r="L45" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I45" s="19"/>
+      <c r="J45" s="24">
+        <v>2</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L45" s="4"/>
+      <c r="M45" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="15">
         <v>172</v>
       </c>
@@ -4450,18 +4582,19 @@
       <c r="H46" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I46" s="24">
-        <v>2</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K46" s="4"/>
-      <c r="L46" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I46" s="19"/>
+      <c r="J46" s="24">
+        <v>2</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L46" s="4"/>
+      <c r="M46" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="15">
         <v>174</v>
       </c>
@@ -4484,18 +4617,19 @@
       <c r="H47" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I47" s="24">
-        <v>2</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K47" s="4"/>
-      <c r="L47" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I47" s="19"/>
+      <c r="J47" s="24">
+        <v>2</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L47" s="4"/>
+      <c r="M47" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="15">
         <v>178</v>
       </c>
@@ -4518,18 +4652,19 @@
       <c r="H48" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I48" s="24">
-        <v>2</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K48" s="4"/>
-      <c r="L48" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I48" s="19"/>
+      <c r="J48" s="24">
+        <v>2</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L48" s="4"/>
+      <c r="M48" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="15">
         <v>190</v>
       </c>
@@ -4550,18 +4685,19 @@
         <v>111</v>
       </c>
       <c r="H49" s="19"/>
-      <c r="I49" s="24">
-        <v>2</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K49" s="4"/>
-      <c r="L49" s="5">
+      <c r="I49" s="19"/>
+      <c r="J49" s="24">
+        <v>2</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L49" s="4"/>
+      <c r="M49" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="15">
         <v>194</v>
       </c>
@@ -4580,18 +4716,19 @@
         <v>111</v>
       </c>
       <c r="H50" s="19"/>
-      <c r="I50" s="24">
-        <v>2</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K50" s="4"/>
-      <c r="L50" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I50" s="19"/>
+      <c r="J50" s="24">
+        <v>2</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L50" s="4"/>
+      <c r="M50" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="15">
         <v>200</v>
       </c>
@@ -4612,18 +4749,19 @@
         <v>111</v>
       </c>
       <c r="H51" s="19"/>
-      <c r="I51" s="24">
-        <v>2</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K51" s="4"/>
-      <c r="L51" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I51" s="19"/>
+      <c r="J51" s="24">
+        <v>2</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L51" s="4"/>
+      <c r="M51" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="15">
         <v>202</v>
       </c>
@@ -4644,18 +4782,19 @@
         <v>111</v>
       </c>
       <c r="H52" s="19"/>
-      <c r="I52" s="24">
-        <v>2</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K52" s="4"/>
-      <c r="L52" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I52" s="19"/>
+      <c r="J52" s="24">
+        <v>2</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L52" s="4"/>
+      <c r="M52" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="15">
         <v>208</v>
       </c>
@@ -4674,18 +4813,19 @@
         <v>111</v>
       </c>
       <c r="H53" s="19"/>
-      <c r="I53" s="24">
-        <v>2</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K53" s="4"/>
-      <c r="L53" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I53" s="19"/>
+      <c r="J53" s="24">
+        <v>2</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L53" s="4"/>
+      <c r="M53" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="15">
         <v>210</v>
       </c>
@@ -4706,18 +4846,19 @@
         <v>111</v>
       </c>
       <c r="H54" s="19"/>
-      <c r="I54" s="24">
-        <v>2</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K54" s="4"/>
-      <c r="L54" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I54" s="19"/>
+      <c r="J54" s="24">
+        <v>2</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L54" s="4"/>
+      <c r="M54" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="15">
         <v>214</v>
       </c>
@@ -4738,18 +4879,19 @@
         <v>111</v>
       </c>
       <c r="H55" s="19"/>
-      <c r="I55" s="24">
-        <v>2</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K55" s="4"/>
-      <c r="L55" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I55" s="19"/>
+      <c r="J55" s="24">
+        <v>2</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L55" s="4"/>
+      <c r="M55" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="15">
         <v>216</v>
       </c>
@@ -4770,18 +4912,19 @@
         <v>111</v>
       </c>
       <c r="H56" s="19"/>
-      <c r="I56" s="24">
-        <v>2</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K56" s="4"/>
-      <c r="L56" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I56" s="19"/>
+      <c r="J56" s="24">
+        <v>2</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L56" s="4"/>
+      <c r="M56" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="15">
         <v>218</v>
       </c>
@@ -4800,18 +4943,19 @@
         <v>111</v>
       </c>
       <c r="H57" s="19"/>
-      <c r="I57" s="24">
-        <v>2</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K57" s="4"/>
-      <c r="L57" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I57" s="19"/>
+      <c r="J57" s="24">
+        <v>2</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L57" s="4"/>
+      <c r="M57" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="15">
         <v>220</v>
       </c>
@@ -4832,18 +4976,19 @@
         <v>111</v>
       </c>
       <c r="H58" s="19"/>
-      <c r="I58" s="24">
-        <v>2</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K58" s="4"/>
-      <c r="L58" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I58" s="19"/>
+      <c r="J58" s="24">
+        <v>2</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L58" s="4"/>
+      <c r="M58" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="15">
         <v>222</v>
       </c>
@@ -4864,18 +5009,19 @@
         <v>111</v>
       </c>
       <c r="H59" s="19"/>
-      <c r="I59" s="24">
-        <v>2</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K59" s="4"/>
-      <c r="L59" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I59" s="19"/>
+      <c r="J59" s="24">
+        <v>2</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L59" s="4"/>
+      <c r="M59" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="15">
         <v>224</v>
       </c>
@@ -4898,18 +5044,19 @@
       <c r="H60" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I60" s="24">
-        <v>2</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K60" s="4"/>
-      <c r="L60" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I60" s="19"/>
+      <c r="J60" s="24">
+        <v>2</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L60" s="4"/>
+      <c r="M60" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="15">
         <v>226</v>
       </c>
@@ -4932,18 +5079,19 @@
       <c r="H61" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I61" s="24">
-        <v>2</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K61" s="4"/>
-      <c r="L61" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I61" s="19"/>
+      <c r="J61" s="24">
+        <v>2</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L61" s="4"/>
+      <c r="M61" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="15">
         <v>228</v>
       </c>
@@ -4966,18 +5114,19 @@
       <c r="H62" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I62" s="24">
-        <v>2</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K62" s="4"/>
-      <c r="L62" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I62" s="19"/>
+      <c r="J62" s="24">
+        <v>2</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L62" s="4"/>
+      <c r="M62" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="15">
         <v>230</v>
       </c>
@@ -4998,18 +5147,19 @@
         <v>111</v>
       </c>
       <c r="H63" s="19"/>
-      <c r="I63" s="24">
-        <v>2</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K63" s="4"/>
-      <c r="L63" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I63" s="19"/>
+      <c r="J63" s="24">
+        <v>2</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L63" s="4"/>
+      <c r="M63" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="15">
         <v>232</v>
       </c>
@@ -5030,18 +5180,19 @@
         <v>111</v>
       </c>
       <c r="H64" s="19"/>
-      <c r="I64" s="24">
-        <v>2</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K64" s="4"/>
-      <c r="L64" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I64" s="19"/>
+      <c r="J64" s="24">
+        <v>2</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L64" s="4"/>
+      <c r="M64" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="15">
         <v>234</v>
       </c>
@@ -5064,18 +5215,19 @@
       <c r="H65" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I65" s="24">
-        <v>2</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K65" s="4"/>
-      <c r="L65" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I65" s="19"/>
+      <c r="J65" s="24">
+        <v>2</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L65" s="4"/>
+      <c r="M65" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="15">
         <v>236</v>
       </c>
@@ -5098,18 +5250,19 @@
       <c r="H66" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I66" s="24">
-        <v>2</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K66" s="4"/>
-      <c r="L66" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I66" s="19"/>
+      <c r="J66" s="24">
+        <v>2</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L66" s="4"/>
+      <c r="M66" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="15">
         <v>238</v>
       </c>
@@ -5132,18 +5285,19 @@
       <c r="H67" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I67" s="24">
-        <v>2</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K67" s="4"/>
-      <c r="L67" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I67" s="19"/>
+      <c r="J67" s="24">
+        <v>2</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L67" s="4"/>
+      <c r="M67" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="15">
         <v>240</v>
       </c>
@@ -5164,18 +5318,19 @@
         <v>111</v>
       </c>
       <c r="H68" s="19"/>
-      <c r="I68" s="24">
-        <v>2</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K68" s="4"/>
-      <c r="L68" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I68" s="19"/>
+      <c r="J68" s="24">
+        <v>2</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L68" s="4"/>
+      <c r="M68" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="15">
         <v>242</v>
       </c>
@@ -5196,18 +5351,19 @@
         <v>111</v>
       </c>
       <c r="H69" s="19"/>
-      <c r="I69" s="24">
-        <v>2</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K69" s="4"/>
-      <c r="L69" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I69" s="19"/>
+      <c r="J69" s="24">
+        <v>2</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L69" s="4"/>
+      <c r="M69" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="15">
         <v>244</v>
       </c>
@@ -5230,18 +5386,19 @@
       <c r="H70" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I70" s="24">
-        <v>2</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K70" s="4"/>
-      <c r="L70" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I70" s="19"/>
+      <c r="J70" s="24">
+        <v>2</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L70" s="4"/>
+      <c r="M70" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="15">
         <v>246</v>
       </c>
@@ -5264,18 +5421,19 @@
       <c r="H71" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I71" s="24">
-        <v>2</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K71" s="4"/>
-      <c r="L71" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I71" s="19"/>
+      <c r="J71" s="24">
+        <v>2</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L71" s="4"/>
+      <c r="M71" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="15">
         <v>248</v>
       </c>
@@ -5298,18 +5456,19 @@
       <c r="H72" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I72" s="24">
-        <v>2</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K72" s="4"/>
-      <c r="L72" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I72" s="19"/>
+      <c r="J72" s="24">
+        <v>2</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L72" s="4"/>
+      <c r="M72" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="15">
         <v>250</v>
       </c>
@@ -5330,18 +5489,19 @@
         <v>111</v>
       </c>
       <c r="H73" s="19"/>
-      <c r="I73" s="24">
-        <v>2</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K73" s="4"/>
-      <c r="L73" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I73" s="19"/>
+      <c r="J73" s="24">
+        <v>2</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L73" s="4"/>
+      <c r="M73" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="15">
         <v>252</v>
       </c>
@@ -5364,18 +5524,19 @@
       <c r="H74" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I74" s="24">
-        <v>2</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K74" s="4"/>
-      <c r="L74" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I74" s="19"/>
+      <c r="J74" s="24">
+        <v>2</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L74" s="4"/>
+      <c r="M74" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="15">
         <v>254</v>
       </c>
@@ -5398,18 +5559,19 @@
       <c r="H75" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I75" s="24">
-        <v>2</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K75" s="4"/>
-      <c r="L75" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I75" s="19"/>
+      <c r="J75" s="24">
+        <v>2</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L75" s="4"/>
+      <c r="M75" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="15">
         <v>256</v>
       </c>
@@ -5432,18 +5594,19 @@
       <c r="H76" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I76" s="24">
-        <v>2</v>
-      </c>
-      <c r="J76" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K76" s="4"/>
-      <c r="L76" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I76" s="19"/>
+      <c r="J76" s="24">
+        <v>2</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L76" s="4"/>
+      <c r="M76" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="15">
         <v>258</v>
       </c>
@@ -5464,18 +5627,19 @@
         <v>111</v>
       </c>
       <c r="H77" s="19"/>
-      <c r="I77" s="24">
-        <v>2</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K77" s="4"/>
-      <c r="L77" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I77" s="19"/>
+      <c r="J77" s="24">
+        <v>2</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L77" s="4"/>
+      <c r="M77" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="15">
         <v>260</v>
       </c>
@@ -5498,18 +5662,19 @@
       <c r="H78" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I78" s="24">
-        <v>2</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K78" s="4"/>
-      <c r="L78" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I78" s="19"/>
+      <c r="J78" s="24">
+        <v>2</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L78" s="4"/>
+      <c r="M78" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="15">
         <v>266</v>
       </c>
@@ -5530,18 +5695,19 @@
         <v>111</v>
       </c>
       <c r="H79" s="19"/>
-      <c r="I79" s="24">
-        <v>2</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K79" s="4"/>
-      <c r="L79" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I79" s="19"/>
+      <c r="J79" s="24">
+        <v>2</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L79" s="4"/>
+      <c r="M79" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="15">
         <v>268</v>
       </c>
@@ -5562,18 +5728,19 @@
         <v>111</v>
       </c>
       <c r="H80" s="19"/>
-      <c r="I80" s="24">
-        <v>2</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K80" s="4"/>
-      <c r="L80" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I80" s="19"/>
+      <c r="J80" s="24">
+        <v>2</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L80" s="4"/>
+      <c r="M80" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="15">
         <v>270</v>
       </c>
@@ -5596,18 +5763,19 @@
       <c r="H81" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I81" s="24">
-        <v>2</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K81" s="4"/>
-      <c r="L81" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I81" s="19"/>
+      <c r="J81" s="24">
+        <v>2</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L81" s="4"/>
+      <c r="M81" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="15">
         <v>276</v>
       </c>
@@ -5628,18 +5796,19 @@
         <v>111</v>
       </c>
       <c r="H82" s="19"/>
-      <c r="I82" s="24">
-        <v>2</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K82" s="4"/>
-      <c r="L82" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I82" s="19"/>
+      <c r="J82" s="24">
+        <v>2</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L82" s="4"/>
+      <c r="M82" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="15">
         <v>278</v>
       </c>
@@ -5660,18 +5829,19 @@
         <v>111</v>
       </c>
       <c r="H83" s="19"/>
-      <c r="I83" s="24">
-        <v>2</v>
-      </c>
-      <c r="J83" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K83" s="4"/>
-      <c r="L83" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I83" s="19"/>
+      <c r="J83" s="24">
+        <v>2</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L83" s="4"/>
+      <c r="M83" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="15">
         <v>280</v>
       </c>
@@ -5694,18 +5864,19 @@
       <c r="H84" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I84" s="24">
-        <v>2</v>
-      </c>
-      <c r="J84" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K84" s="4"/>
-      <c r="L84" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I84" s="19"/>
+      <c r="J84" s="24">
+        <v>2</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L84" s="4"/>
+      <c r="M84" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="15">
         <v>286</v>
       </c>
@@ -5726,18 +5897,19 @@
         <v>111</v>
       </c>
       <c r="H85" s="19"/>
-      <c r="I85" s="24">
-        <v>2</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K85" s="4"/>
-      <c r="L85" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I85" s="19"/>
+      <c r="J85" s="24">
+        <v>2</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L85" s="4"/>
+      <c r="M85" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="15">
         <v>320</v>
       </c>
@@ -5760,18 +5932,19 @@
       <c r="H86" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I86" s="24">
-        <v>2</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K86" s="4"/>
-      <c r="L86" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I86" s="19"/>
+      <c r="J86" s="24">
+        <v>2</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L86" s="4"/>
+      <c r="M86" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="15">
         <v>322</v>
       </c>
@@ -5794,18 +5967,19 @@
       <c r="H87" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I87" s="24">
-        <v>2</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K87" s="4"/>
-      <c r="L87" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I87" s="19"/>
+      <c r="J87" s="24">
+        <v>2</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L87" s="4"/>
+      <c r="M87" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="15">
         <v>324</v>
       </c>
@@ -5828,18 +6002,19 @@
       <c r="H88" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I88" s="24">
-        <v>2</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K88" s="4"/>
-      <c r="L88" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I88" s="19"/>
+      <c r="J88" s="24">
+        <v>2</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L88" s="4"/>
+      <c r="M88" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="15">
         <v>326</v>
       </c>
@@ -5862,18 +6037,19 @@
       <c r="H89" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I89" s="24">
-        <v>2</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K89" s="4"/>
-      <c r="L89" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I89" s="19"/>
+      <c r="J89" s="24">
+        <v>2</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L89" s="4"/>
+      <c r="M89" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="15">
         <v>384</v>
       </c>
@@ -5892,18 +6068,21 @@
         <v>115</v>
       </c>
       <c r="H90" s="19"/>
-      <c r="I90" s="24">
+      <c r="I90" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="J90" s="24">
         <v>32</v>
       </c>
-      <c r="J90" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K90" s="4"/>
-      <c r="L90" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K90" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L90" s="4"/>
+      <c r="M90" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="15">
         <v>416</v>
       </c>
@@ -5915,25 +6094,26 @@
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="3" t="s">
         <v>113</v>
       </c>
       <c r="H91" s="19"/>
-      <c r="I91" s="24">
+      <c r="I91" s="19"/>
+      <c r="J91" s="24">
         <v>1</v>
       </c>
-      <c r="J91" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K91" s="4"/>
-      <c r="L91" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K91" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L91" s="4"/>
+      <c r="M91" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="15">
         <v>418</v>
       </c>
@@ -5952,18 +6132,19 @@
         <v>113</v>
       </c>
       <c r="H92" s="19"/>
-      <c r="I92" s="24">
+      <c r="I92" s="19"/>
+      <c r="J92" s="24">
         <v>1</v>
       </c>
-      <c r="J92" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K92" s="4"/>
-      <c r="L92" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K92" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L92" s="4"/>
+      <c r="M92" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="15">
         <v>420</v>
       </c>
@@ -5982,18 +6163,21 @@
         <v>115</v>
       </c>
       <c r="H93" s="19"/>
-      <c r="I93" s="24">
+      <c r="I93" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="J93" s="24">
         <v>8</v>
       </c>
-      <c r="J93" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K93" s="4"/>
-      <c r="L93" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K93" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L93" s="4"/>
+      <c r="M93" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="15">
         <v>428</v>
       </c>
@@ -6012,18 +6196,21 @@
         <v>115</v>
       </c>
       <c r="H94" s="19"/>
-      <c r="I94" s="24">
+      <c r="I94" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="J94" s="24">
         <v>8</v>
       </c>
-      <c r="J94" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K94" s="4"/>
-      <c r="L94" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K94" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L94" s="4"/>
+      <c r="M94" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="15">
         <v>436</v>
       </c>
@@ -6042,18 +6229,21 @@
         <v>115</v>
       </c>
       <c r="H95" s="19"/>
-      <c r="I95" s="24">
+      <c r="I95" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="J95" s="24">
         <v>8</v>
       </c>
-      <c r="J95" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K95" s="4"/>
-      <c r="L95" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K95" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L95" s="4"/>
+      <c r="M95" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="15">
         <v>444</v>
       </c>
@@ -6065,25 +6255,26 @@
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="3" t="s">
         <v>113</v>
       </c>
       <c r="H96" s="19"/>
-      <c r="I96" s="24">
+      <c r="I96" s="19"/>
+      <c r="J96" s="24">
         <v>1</v>
       </c>
-      <c r="J96" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K96" s="4"/>
-      <c r="L96" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K96" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L96" s="4"/>
+      <c r="M96" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="15">
         <v>446</v>
       </c>
@@ -6102,18 +6293,21 @@
         <v>115</v>
       </c>
       <c r="H97" s="19"/>
-      <c r="I97" s="24">
+      <c r="I97" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="J97" s="24">
         <v>8</v>
       </c>
-      <c r="J97" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K97" s="4"/>
-      <c r="L97" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K97" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L97" s="4"/>
+      <c r="M97" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="15">
         <v>454</v>
       </c>
@@ -6132,18 +6326,21 @@
         <v>115</v>
       </c>
       <c r="H98" s="19"/>
-      <c r="I98" s="24">
+      <c r="I98" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="J98" s="24">
         <v>8</v>
       </c>
-      <c r="J98" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K98" s="4"/>
-      <c r="L98" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K98" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L98" s="4"/>
+      <c r="M98" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="15">
         <v>512</v>
       </c>
@@ -6164,18 +6361,19 @@
         <v>113</v>
       </c>
       <c r="H99" s="19"/>
-      <c r="I99" s="24">
-        <v>2</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K99" s="4"/>
-      <c r="L99" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I99" s="19"/>
+      <c r="J99" s="24">
+        <v>2</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L99" s="4"/>
+      <c r="M99" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="15">
         <v>514</v>
       </c>
@@ -6196,18 +6394,19 @@
         <v>113</v>
       </c>
       <c r="H100" s="19"/>
-      <c r="I100" s="24">
+      <c r="I100" s="19"/>
+      <c r="J100" s="24">
         <v>1</v>
       </c>
-      <c r="J100" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K100" s="4"/>
-      <c r="L100" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K100" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L100" s="4"/>
+      <c r="M100" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="15">
         <v>515</v>
       </c>
@@ -6226,18 +6425,19 @@
         <v>113</v>
       </c>
       <c r="H101" s="19"/>
-      <c r="I101" s="24">
-        <v>2</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K101" s="4"/>
-      <c r="L101" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I101" s="19"/>
+      <c r="J101" s="24">
+        <v>2</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L101" s="4"/>
+      <c r="M101" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="15">
         <v>517</v>
       </c>
@@ -6256,18 +6456,21 @@
         <v>115</v>
       </c>
       <c r="H102" s="19"/>
-      <c r="I102" s="24">
+      <c r="I102" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="J102" s="24">
         <v>8</v>
       </c>
-      <c r="J102" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K102" s="4"/>
-      <c r="L102" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K102" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L102" s="4"/>
+      <c r="M102" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="15">
         <v>525</v>
       </c>
@@ -6286,18 +6489,19 @@
         <v>113</v>
       </c>
       <c r="H103" s="19"/>
-      <c r="I103" s="24">
-        <v>2</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K103" s="4"/>
-      <c r="L103" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I103" s="19"/>
+      <c r="J103" s="24">
+        <v>2</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L103" s="4"/>
+      <c r="M103" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="15">
         <v>527</v>
       </c>
@@ -6316,18 +6520,19 @@
         <v>113</v>
       </c>
       <c r="H104" s="19"/>
-      <c r="I104" s="24">
-        <v>2</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K104" s="4"/>
-      <c r="L104" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I104" s="19"/>
+      <c r="J104" s="24">
+        <v>2</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L104" s="4"/>
+      <c r="M104" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="15">
         <v>529</v>
       </c>
@@ -6350,18 +6555,19 @@
       <c r="H105" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I105" s="24">
-        <v>2</v>
-      </c>
-      <c r="J105" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K105" s="4"/>
-      <c r="L105" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I105" s="19"/>
+      <c r="J105" s="24">
+        <v>2</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L105" s="4"/>
+      <c r="M105" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="15">
         <v>531</v>
       </c>
@@ -6386,18 +6592,19 @@
       <c r="H106" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I106" s="24">
+      <c r="I106" s="19"/>
+      <c r="J106" s="24">
         <v>1</v>
       </c>
-      <c r="J106" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K106" s="4"/>
-      <c r="L106" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K106" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L106" s="4"/>
+      <c r="M106" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="15">
         <v>532</v>
       </c>
@@ -6416,18 +6623,19 @@
         <v>114</v>
       </c>
       <c r="H107" s="19"/>
-      <c r="I107" s="24">
+      <c r="I107" s="19"/>
+      <c r="J107" s="24">
         <v>1</v>
       </c>
-      <c r="J107" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K107" s="4"/>
-      <c r="L107" s="5">
+      <c r="K107" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L107" s="4"/>
+      <c r="M107" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="15">
         <v>533</v>
       </c>
@@ -6448,18 +6656,19 @@
         <v>113</v>
       </c>
       <c r="H108" s="19"/>
-      <c r="I108" s="24">
+      <c r="I108" s="19"/>
+      <c r="J108" s="24">
         <v>1</v>
       </c>
-      <c r="J108" s="4"/>
-      <c r="K108" s="4" t="s">
+      <c r="K108" s="4"/>
+      <c r="L108" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L108" s="5">
+      <c r="M108" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="15">
         <v>535</v>
       </c>
@@ -6478,18 +6687,21 @@
         <v>115</v>
       </c>
       <c r="H109" s="19"/>
-      <c r="I109" s="24">
+      <c r="I109" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="J109" s="24">
         <v>16</v>
       </c>
-      <c r="J109" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K109" s="4"/>
-      <c r="L109" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K109" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L109" s="4"/>
+      <c r="M109" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="15">
         <v>559</v>
       </c>
@@ -6508,18 +6720,21 @@
         <v>115</v>
       </c>
       <c r="H110" s="19"/>
-      <c r="I110" s="24">
+      <c r="I110" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="J110" s="24">
         <v>16</v>
       </c>
-      <c r="J110" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K110" s="4"/>
-      <c r="L110" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K110" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L110" s="4"/>
+      <c r="M110" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="15">
         <v>575</v>
       </c>
@@ -6544,18 +6759,19 @@
       <c r="H111" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I111" s="24">
+      <c r="I111" s="19"/>
+      <c r="J111" s="24">
         <v>1</v>
       </c>
-      <c r="J111" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K111" s="4"/>
-      <c r="L111" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K111" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L111" s="4"/>
+      <c r="M111" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="15">
         <v>576</v>
       </c>
@@ -6574,18 +6790,19 @@
         <v>114</v>
       </c>
       <c r="H112" s="19"/>
-      <c r="I112" s="24">
+      <c r="I112" s="19"/>
+      <c r="J112" s="24">
         <v>1</v>
       </c>
-      <c r="J112" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K112" s="4"/>
-      <c r="L112" s="5">
+      <c r="K112" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L112" s="4"/>
+      <c r="M112" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="15">
         <v>577</v>
       </c>
@@ -6610,18 +6827,19 @@
       <c r="H113" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I113" s="24">
-        <v>2</v>
-      </c>
-      <c r="J113" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K113" s="4"/>
-      <c r="L113" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I113" s="19"/>
+      <c r="J113" s="24">
+        <v>2</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L113" s="4"/>
+      <c r="M113" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="15">
         <v>579</v>
       </c>
@@ -6640,18 +6858,19 @@
         <v>114</v>
       </c>
       <c r="H114" s="19"/>
-      <c r="I114" s="24">
+      <c r="I114" s="19"/>
+      <c r="J114" s="24">
         <v>1</v>
       </c>
-      <c r="J114" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K114" s="4"/>
-      <c r="L114" s="5">
+      <c r="K114" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L114" s="4"/>
+      <c r="M114" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="15">
         <v>582</v>
       </c>
@@ -6674,18 +6893,19 @@
       <c r="H115" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I115" s="24">
+      <c r="I115" s="19"/>
+      <c r="J115" s="24">
         <v>1</v>
       </c>
-      <c r="J115" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K115" s="4"/>
-      <c r="L115" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K115" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L115" s="4"/>
+      <c r="M115" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="15">
         <v>583</v>
       </c>
@@ -6706,18 +6926,19 @@
         <v>114</v>
       </c>
       <c r="H116" s="19"/>
-      <c r="I116" s="24">
+      <c r="I116" s="19"/>
+      <c r="J116" s="24">
         <v>1</v>
       </c>
-      <c r="J116" s="4"/>
-      <c r="K116" s="4" t="s">
+      <c r="K116" s="4"/>
+      <c r="L116" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L116" s="5">
+      <c r="M116" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="15">
         <v>585</v>
       </c>
@@ -6736,18 +6957,19 @@
         <v>114</v>
       </c>
       <c r="H117" s="19"/>
-      <c r="I117" s="24">
+      <c r="I117" s="19"/>
+      <c r="J117" s="24">
         <v>1</v>
       </c>
-      <c r="J117" s="4"/>
-      <c r="K117" s="4" t="s">
+      <c r="K117" s="4"/>
+      <c r="L117" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L117" s="5">
+      <c r="M117" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="15">
         <v>586</v>
       </c>
@@ -6766,18 +6988,19 @@
         <v>113</v>
       </c>
       <c r="H118" s="19"/>
-      <c r="I118" s="24">
+      <c r="I118" s="19"/>
+      <c r="J118" s="24">
         <v>1</v>
       </c>
-      <c r="J118" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K118" s="4"/>
-      <c r="L118" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K118" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L118" s="4"/>
+      <c r="M118" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="15">
         <v>588</v>
       </c>
@@ -6798,18 +7021,19 @@
         <v>113</v>
       </c>
       <c r="H119" s="19"/>
-      <c r="I119" s="24">
+      <c r="I119" s="19"/>
+      <c r="J119" s="24">
         <v>1</v>
       </c>
-      <c r="J119" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K119" s="4"/>
-      <c r="L119" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K119" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L119" s="4"/>
+      <c r="M119" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="15">
         <v>768</v>
       </c>
@@ -6828,18 +7052,21 @@
         <v>115</v>
       </c>
       <c r="H120" s="19"/>
-      <c r="I120" s="24">
+      <c r="I120" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="J120" s="24">
         <v>32</v>
       </c>
-      <c r="J120" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K120" s="4"/>
-      <c r="L120" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K120" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L120" s="4"/>
+      <c r="M120" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="15">
         <v>800</v>
       </c>
@@ -6858,18 +7085,21 @@
         <v>115</v>
       </c>
       <c r="H121" s="19"/>
-      <c r="I121" s="24">
+      <c r="I121" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="J121" s="24">
         <v>32</v>
       </c>
-      <c r="J121" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K121" s="4"/>
-      <c r="L121" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K121" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L121" s="4"/>
+      <c r="M121" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="15">
         <v>832</v>
       </c>
@@ -6894,18 +7124,19 @@
       <c r="H122" s="20">
         <v>1E-3</v>
       </c>
-      <c r="I122" s="24">
+      <c r="I122" s="20"/>
+      <c r="J122" s="24">
         <v>1</v>
       </c>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4" t="s">
+      <c r="K122" s="4"/>
+      <c r="L122" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L122" s="5">
+      <c r="M122" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="15">
         <v>833</v>
       </c>
@@ -6924,18 +7155,19 @@
         <v>114</v>
       </c>
       <c r="H123" s="20"/>
-      <c r="I123" s="24">
+      <c r="I123" s="20"/>
+      <c r="J123" s="24">
         <v>1</v>
       </c>
-      <c r="J123" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K123" s="4"/>
-      <c r="L123" s="5">
+      <c r="K123" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L123" s="4"/>
+      <c r="M123" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="15">
         <v>1024</v>
       </c>
@@ -6960,18 +7192,19 @@
       <c r="H124" s="20">
         <v>1E-3</v>
       </c>
-      <c r="I124" s="24">
+      <c r="I124" s="20"/>
+      <c r="J124" s="24">
         <v>1</v>
       </c>
-      <c r="J124" s="4"/>
-      <c r="K124" s="4" t="s">
+      <c r="K124" s="4"/>
+      <c r="L124" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L124" s="5">
+      <c r="M124" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="15">
         <v>1025</v>
       </c>
@@ -6990,18 +7223,19 @@
         <v>114</v>
       </c>
       <c r="H125" s="20"/>
-      <c r="I125" s="24">
+      <c r="I125" s="20"/>
+      <c r="J125" s="24">
         <v>1</v>
       </c>
-      <c r="J125" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K125" s="4"/>
-      <c r="L125" s="5">
+      <c r="K125" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L125" s="4"/>
+      <c r="M125" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="15">
         <v>1026</v>
       </c>
@@ -7024,20 +7258,21 @@
       <c r="H126" s="20">
         <v>1E-3</v>
       </c>
-      <c r="I126" s="24">
-        <v>2</v>
-      </c>
-      <c r="J126" s="4" t="s">
-        <v>107</v>
+      <c r="I126" s="20"/>
+      <c r="J126" s="24">
+        <v>2</v>
       </c>
       <c r="K126" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L126" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="L126" s="5">
+      <c r="M126" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="15">
         <v>1028</v>
       </c>
@@ -7058,20 +7293,21 @@
         <v>285</v>
       </c>
       <c r="H127" s="20"/>
-      <c r="I127" s="24">
-        <v>2</v>
-      </c>
-      <c r="J127" s="4" t="s">
-        <v>107</v>
+      <c r="I127" s="20"/>
+      <c r="J127" s="24">
+        <v>2</v>
       </c>
       <c r="K127" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L127" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="L127" s="5">
+      <c r="M127" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="15">
         <v>1030</v>
       </c>
@@ -7092,20 +7328,21 @@
         <v>285</v>
       </c>
       <c r="H128" s="20"/>
-      <c r="I128" s="24">
-        <v>2</v>
-      </c>
-      <c r="J128" s="4" t="s">
-        <v>107</v>
+      <c r="I128" s="20"/>
+      <c r="J128" s="24">
+        <v>2</v>
       </c>
       <c r="K128" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L128" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="L128" s="5">
+      <c r="M128" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="15">
         <v>1032</v>
       </c>
@@ -7126,20 +7363,21 @@
         <v>285</v>
       </c>
       <c r="H129" s="20"/>
-      <c r="I129" s="24">
-        <v>2</v>
-      </c>
-      <c r="J129" s="4" t="s">
-        <v>107</v>
+      <c r="I129" s="20"/>
+      <c r="J129" s="24">
+        <v>2</v>
       </c>
       <c r="K129" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L129" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="L129" s="5">
+      <c r="M129" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="15">
         <v>1034</v>
       </c>
@@ -7162,20 +7400,21 @@
       <c r="H130" s="20">
         <v>1E-3</v>
       </c>
-      <c r="I130" s="24">
-        <v>2</v>
-      </c>
-      <c r="J130" s="4" t="s">
-        <v>107</v>
+      <c r="I130" s="20"/>
+      <c r="J130" s="24">
+        <v>2</v>
       </c>
       <c r="K130" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L130" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="L130" s="5">
+      <c r="M130" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="15">
         <v>1036</v>
       </c>
@@ -7196,20 +7435,21 @@
         <v>285</v>
       </c>
       <c r="H131" s="20"/>
-      <c r="I131" s="24">
-        <v>2</v>
-      </c>
-      <c r="J131" s="4" t="s">
-        <v>107</v>
+      <c r="I131" s="20"/>
+      <c r="J131" s="24">
+        <v>2</v>
       </c>
       <c r="K131" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L131" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="L131" s="5">
+      <c r="M131" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="15">
         <v>1038</v>
       </c>
@@ -7232,20 +7472,21 @@
       <c r="H132" s="20">
         <v>1E-3</v>
       </c>
-      <c r="I132" s="24">
-        <v>2</v>
-      </c>
-      <c r="J132" s="4" t="s">
-        <v>107</v>
+      <c r="I132" s="20"/>
+      <c r="J132" s="24">
+        <v>2</v>
       </c>
       <c r="K132" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L132" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="L132" s="5">
+      <c r="M132" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="15">
         <v>1040</v>
       </c>
@@ -7268,20 +7509,21 @@
       <c r="H133" s="20">
         <v>1E-3</v>
       </c>
-      <c r="I133" s="24">
-        <v>2</v>
-      </c>
-      <c r="J133" s="4" t="s">
-        <v>107</v>
+      <c r="I133" s="20"/>
+      <c r="J133" s="24">
+        <v>2</v>
       </c>
       <c r="K133" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L133" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="L133" s="5">
+      <c r="M133" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="15">
         <v>1042</v>
       </c>
@@ -7293,7 +7535,7 @@
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>116</v>
@@ -7302,20 +7544,21 @@
         <v>285</v>
       </c>
       <c r="H134" s="20"/>
-      <c r="I134" s="24">
-        <v>2</v>
-      </c>
-      <c r="J134" s="4" t="s">
-        <v>107</v>
+      <c r="I134" s="20"/>
+      <c r="J134" s="24">
+        <v>2</v>
       </c>
       <c r="K134" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L134" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="L134" s="5">
+      <c r="M134" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="15">
         <v>1044</v>
       </c>
@@ -7327,7 +7570,7 @@
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>116</v>
@@ -7336,20 +7579,21 @@
         <v>285</v>
       </c>
       <c r="H135" s="20"/>
-      <c r="I135" s="24">
-        <v>2</v>
-      </c>
-      <c r="J135" s="4" t="s">
-        <v>107</v>
+      <c r="I135" s="20"/>
+      <c r="J135" s="24">
+        <v>2</v>
       </c>
       <c r="K135" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L135" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="L135" s="5">
+      <c r="M135" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="15">
         <v>1046</v>
       </c>
@@ -7372,18 +7616,19 @@
       <c r="H136" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I136" s="24">
-        <v>2</v>
-      </c>
-      <c r="J136" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K136" s="4"/>
-      <c r="L136" s="5">
+      <c r="I136" s="19"/>
+      <c r="J136" s="24">
+        <v>2</v>
+      </c>
+      <c r="K136" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L136" s="4"/>
+      <c r="M136" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="15">
         <v>1048</v>
       </c>
@@ -7406,18 +7651,19 @@
       <c r="H137" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I137" s="24">
-        <v>2</v>
-      </c>
-      <c r="J137" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K137" s="4"/>
-      <c r="L137" s="5">
+      <c r="I137" s="19"/>
+      <c r="J137" s="24">
+        <v>2</v>
+      </c>
+      <c r="K137" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L137" s="4"/>
+      <c r="M137" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="15">
         <v>1050</v>
       </c>
@@ -7440,18 +7686,19 @@
       <c r="H138" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I138" s="24">
-        <v>2</v>
-      </c>
-      <c r="J138" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K138" s="4"/>
-      <c r="L138" s="5">
+      <c r="I138" s="19"/>
+      <c r="J138" s="24">
+        <v>2</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L138" s="4"/>
+      <c r="M138" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="16">
         <v>1052</v>
       </c>
@@ -7474,18 +7721,19 @@
       <c r="H139" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I139" s="25">
-        <v>2</v>
-      </c>
-      <c r="J139" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K139" s="8"/>
-      <c r="L139" s="5">
+      <c r="I139" s="26"/>
+      <c r="J139" s="25">
+        <v>2</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L139" s="8"/>
+      <c r="M139" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="15">
         <v>1054</v>
       </c>
@@ -7508,18 +7756,19 @@
       <c r="H140" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I140" s="24">
-        <v>2</v>
-      </c>
-      <c r="J140" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K140" s="4"/>
-      <c r="L140" s="5">
+      <c r="I140" s="19"/>
+      <c r="J140" s="24">
+        <v>2</v>
+      </c>
+      <c r="K140" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L140" s="4"/>
+      <c r="M140" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="15">
         <v>1056</v>
       </c>
@@ -7542,18 +7791,19 @@
       <c r="H141" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I141" s="24">
-        <v>2</v>
-      </c>
-      <c r="J141" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K141" s="4"/>
-      <c r="L141" s="5">
+      <c r="I141" s="19"/>
+      <c r="J141" s="24">
+        <v>2</v>
+      </c>
+      <c r="K141" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L141" s="4"/>
+      <c r="M141" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="15">
         <v>1058</v>
       </c>
@@ -7576,18 +7826,19 @@
       <c r="H142" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I142" s="24">
-        <v>2</v>
-      </c>
-      <c r="J142" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K142" s="4"/>
-      <c r="L142" s="5">
+      <c r="I142" s="19"/>
+      <c r="J142" s="24">
+        <v>2</v>
+      </c>
+      <c r="K142" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L142" s="4"/>
+      <c r="M142" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="15">
         <v>1060</v>
       </c>
@@ -7610,18 +7861,19 @@
       <c r="H143" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I143" s="24">
-        <v>2</v>
-      </c>
-      <c r="J143" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K143" s="4"/>
-      <c r="L143" s="5">
+      <c r="I143" s="19"/>
+      <c r="J143" s="24">
+        <v>2</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L143" s="4"/>
+      <c r="M143" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="15">
         <v>1062</v>
       </c>
@@ -7644,18 +7896,19 @@
       <c r="H144" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I144" s="24">
-        <v>2</v>
-      </c>
-      <c r="J144" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K144" s="4"/>
-      <c r="L144" s="5">
+      <c r="I144" s="19"/>
+      <c r="J144" s="24">
+        <v>2</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L144" s="4"/>
+      <c r="M144" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="15">
         <v>1064</v>
       </c>
@@ -7678,18 +7931,19 @@
       <c r="H145" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I145" s="24">
-        <v>2</v>
-      </c>
-      <c r="J145" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K145" s="4"/>
-      <c r="L145" s="5">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I145" s="19"/>
+      <c r="J145" s="24">
+        <v>2</v>
+      </c>
+      <c r="K145" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L145" s="4"/>
+      <c r="M145" s="5">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" s="15">
         <v>1066</v>
       </c>
@@ -7712,18 +7966,19 @@
       <c r="H146" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I146" s="24">
-        <v>2</v>
-      </c>
-      <c r="J146" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K146" s="4"/>
-      <c r="L146" s="5">
+      <c r="I146" s="19"/>
+      <c r="J146" s="24">
+        <v>2</v>
+      </c>
+      <c r="K146" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L146" s="4"/>
+      <c r="M146" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="15">
         <v>1068</v>
       </c>
@@ -7746,18 +8001,19 @@
       <c r="H147" s="20">
         <v>1E-3</v>
       </c>
-      <c r="I147" s="24">
-        <v>2</v>
-      </c>
-      <c r="J147" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K147" s="4"/>
-      <c r="L147" s="5">
+      <c r="I147" s="20"/>
+      <c r="J147" s="24">
+        <v>2</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L147" s="4"/>
+      <c r="M147" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" s="15">
         <v>1070</v>
       </c>
@@ -7776,18 +8032,19 @@
         <v>113</v>
       </c>
       <c r="H148" s="20"/>
-      <c r="I148" s="24">
-        <v>2</v>
-      </c>
-      <c r="J148" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K148" s="4"/>
-      <c r="L148" s="5">
+      <c r="I148" s="20"/>
+      <c r="J148" s="24">
+        <v>2</v>
+      </c>
+      <c r="K148" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L148" s="4"/>
+      <c r="M148" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" s="15">
         <v>1076</v>
       </c>
@@ -7810,18 +8067,19 @@
       <c r="H149" s="20">
         <v>1E-3</v>
       </c>
-      <c r="I149" s="24">
-        <v>2</v>
-      </c>
-      <c r="J149" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K149" s="4"/>
-      <c r="L149" s="5">
+      <c r="I149" s="20"/>
+      <c r="J149" s="24">
+        <v>2</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L149" s="4"/>
+      <c r="M149" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" s="15">
         <v>1078</v>
       </c>
@@ -7844,18 +8102,19 @@
       <c r="H150" s="20">
         <v>1E-3</v>
       </c>
-      <c r="I150" s="24">
-        <v>2</v>
-      </c>
-      <c r="J150" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K150" s="4"/>
-      <c r="L150" s="5">
+      <c r="I150" s="20"/>
+      <c r="J150" s="24">
+        <v>2</v>
+      </c>
+      <c r="K150" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L150" s="4"/>
+      <c r="M150" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" s="15">
         <v>1080</v>
       </c>
@@ -7874,18 +8133,19 @@
         <v>113</v>
       </c>
       <c r="H151" s="20"/>
-      <c r="I151" s="24">
+      <c r="I151" s="20"/>
+      <c r="J151" s="24">
         <v>1</v>
       </c>
-      <c r="J151" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K151" s="4"/>
-      <c r="L151" s="5">
+      <c r="K151" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L151" s="4"/>
+      <c r="M151" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" s="14">
         <v>1082</v>
       </c>
@@ -7906,46 +8166,50 @@
         <v>113</v>
       </c>
       <c r="H152" s="19"/>
-      <c r="I152" s="23">
+      <c r="I152" s="19"/>
+      <c r="J152" s="23">
         <v>1</v>
       </c>
-      <c r="J152" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K152" s="3"/>
-      <c r="L152" s="9">
+      <c r="K152" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L152" s="3"/>
+      <c r="M152" s="9">
         <v>1.44</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" insertRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="D122">
-    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152 C2:C124 C126:C146">
-    <cfRule type="duplicateValues" dxfId="21" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:C151">
-    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148">
-    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C147">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J152" xr:uid="{44DEFA60-CD9D-49B1-9B1E-F329372B473B}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K152" xr:uid="{44DEFA60-CD9D-49B1-9B1E-F329372B473B}">
       <formula1>"$FC_Read_Coil,$FC_Read_DiscreteInput,$FC_Read_HoldingRegisters,$FC_Read_InputRegisters"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K152" xr:uid="{ABC3A42B-FF9B-47FA-9A0D-B2F36DA3F476}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L152" xr:uid="{ABC3A42B-FF9B-47FA-9A0D-B2F36DA3F476}">
       <formula1>"$FC_Write_SingleCoil,$FC_Write_SingleHoldingRegister,$FC_Write_MultipleCoils,$FC_Write_MultipleHoldingRegisters"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G152" xr:uid="{B31872A6-5129-4597-A149-AB85DDA986AF}">
       <formula1>"$VT_Boolean,$VT_UnsignedInteger,$VT_SignedInteger,$VT_Float,$VT_Real,$VT_String"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I152" xr:uid="{C5FFE52A-E439-4E4B-B5DB-E63D51D8D8BB}">
+      <formula1>"$MB_BigEndian,$MB_BigEndian_ByteSwap,$MB_BigEndian_WordSwap,$MB_LittleEndian,$MB_LittleEndian_ByteSwap,$MB_LittleEndian_WordSwap"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/KOSTAL_ModBus_Specifications.xlsx
+++ b/docs/KOSTAL_ModBus_Specifications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Symcon\modules\JoT.KPP\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0C1DE8-7710-4A14-8B1E-314474F56D3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2874B6E8-4819-4472-815E-83D13FE2CDC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="20" windowWidth="18960" windowHeight="11330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="356">
   <si>
     <r>
       <rPr>
@@ -2051,6 +2051,167 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFEBEDED"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FFEBEDED"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFEBEDED"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFEBEDED"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFEBEDED"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFEBEDED"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFEBEDED"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFEBEDED"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFEBEDED"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFEBEDED"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFEBEDED"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFEBEDED"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFEBEDED"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFEBEDED"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFEBEDED"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="165" formatCode="0.000;[Red]0.000"/>
       <fill>
         <patternFill patternType="none">
@@ -2076,6 +2237,423 @@
         <horizontal/>
       </border>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.000;[Red]0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFEBEDED"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFEBEDED"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFEBEDED"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFEBEDED"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFEBEDED"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFEBEDED"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFEBEDED"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFEBEDED"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFEBEDED"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFEBEDED"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFEBEDED"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFEBEDED"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFEBEDED"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFEBEDED"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFEBEDED"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFEBEDED"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFEBEDED"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFEBEDED"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFEBEDED"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFEBEDED"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFEBEDED"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFEBEDED"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFEBEDED"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFEBEDED"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFEBEDED"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFEBEDED"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFEBEDED"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFEBEDED"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FFEBEDED"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFEBEDED"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFEBEDED"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FFEBEDED"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FFEBEDED"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFEBEDED"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFEBEDED"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFEBEDED"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FFEBEDED"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFEBEDED"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFEBEDED"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2137,584 +2715,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFEBEDED"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FFEBEDED"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFEBEDED"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFEBEDED"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFEBEDED"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFEBEDED"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFEBEDED"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFEBEDED"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFEBEDED"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFEBEDED"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFEBEDED"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0;[Red]0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFEBEDED"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFEBEDED"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFEBEDED"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFEBEDED"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.000;[Red]0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFEBEDED"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFEBEDED"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFEBEDED"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFEBEDED"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFEBEDED"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFEBEDED"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFEBEDED"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFEBEDED"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFEBEDED"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFEBEDED"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFEBEDED"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFEBEDED"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFEBEDED"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFEBEDED"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFEBEDED"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFEBEDED"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFEBEDED"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFEBEDED"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFEBEDED"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFEBEDED"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFEBEDED"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFEBEDED"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFEBEDED"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFEBEDED"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFEBEDED"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFEBEDED"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFEBEDED"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFEBEDED"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0;[Red]0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FFEBEDED"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFEBEDED"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFEBEDED"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FFEBEDED"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FFEBEDED"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFEBEDED"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFEBEDED"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFEBEDED"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FFEBEDED"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFEBEDED"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFEBEDED"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2729,25 +2729,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{891475A2-4FB2-4681-B914-8DF59649A8A5}" name="Tabelle1" displayName="Tabelle1" ref="A1:M152" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{891475A2-4FB2-4681-B914-8DF59649A8A5}" name="Tabelle1" displayName="Tabelle1" ref="A1:M152" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A1:M152" xr:uid="{67CFC5ED-3DF2-4325-8BB0-7109E22EA653}"/>
   <sortState ref="A2:M152">
     <sortCondition ref="A1:A152"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{9997AB42-D315-4920-ABD3-63BF9B542479}" name="Address" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{67E022DD-FFB2-4554-9D80-29B6AA2D8BF9}" name="Group" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{F9B93E8D-86B3-4B2B-B0F3-37EFA4BAC80F}" name="Ident" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{19AE23B1-4B73-425D-B057-6DA5633287A1}" name="ScaleIdent" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{D4274189-8352-4237-A5EC-8978C7CCE623}" name="Name" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{3F315A03-DBBC-4EEE-A147-0CD65AD4C555}" name="Profile" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{F24BF87B-55D8-49EA-83E7-DF00F2B87F83}" name="VarType" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{F1CAE169-D78E-4F13-925D-EB394D9C70FB}" name="Factor" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{8C62C676-2CC7-4D4C-B133-9A861FB7819C}" name="MBType" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{B12D7364-1EDB-440B-9FC2-31E2C3FADF6E}" name="Quantity" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{9769FDF8-F134-4F7D-97E0-9FB704DEDEAF}" name="RFunction" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{2697D931-01F8-4871-AA39-B743702F9207}" name="WFunction" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{370C0678-26F2-4D02-BE87-0190FE344869}" name="FWVersion" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{9997AB42-D315-4920-ABD3-63BF9B542479}" name="Address" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{67E022DD-FFB2-4554-9D80-29B6AA2D8BF9}" name="Group" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{F9B93E8D-86B3-4B2B-B0F3-37EFA4BAC80F}" name="Ident" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{19AE23B1-4B73-425D-B057-6DA5633287A1}" name="ScaleIdent" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{D4274189-8352-4237-A5EC-8978C7CCE623}" name="Name" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{3F315A03-DBBC-4EEE-A147-0CD65AD4C555}" name="Profile" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{F24BF87B-55D8-49EA-83E7-DF00F2B87F83}" name="VarType" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{F1CAE169-D78E-4F13-925D-EB394D9C70FB}" name="Factor" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{8C62C676-2CC7-4D4C-B133-9A861FB7819C}" name="MBType" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{B12D7364-1EDB-440B-9FC2-31E2C3FADF6E}" name="Quantity" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{9769FDF8-F134-4F7D-97E0-9FB704DEDEAF}" name="RFunction" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{2697D931-01F8-4871-AA39-B743702F9207}" name="WFunction" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{370C0678-26F2-4D02-BE87-0190FE344869}" name="FWVersion" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3077,8 +3077,8 @@
   <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3704,7 +3704,9 @@
         <v>113</v>
       </c>
       <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
+      <c r="I20" s="19" t="s">
+        <v>355</v>
+      </c>
       <c r="J20" s="24">
         <v>2</v>
       </c>
@@ -6361,7 +6363,9 @@
         <v>113</v>
       </c>
       <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
+      <c r="I99" s="19" t="s">
+        <v>355</v>
+      </c>
       <c r="J99" s="24">
         <v>2</v>
       </c>
@@ -6555,7 +6559,9 @@
       <c r="H105" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I105" s="19"/>
+      <c r="I105" s="19" t="s">
+        <v>355</v>
+      </c>
       <c r="J105" s="24">
         <v>2</v>
       </c>
@@ -6827,7 +6833,9 @@
       <c r="H113" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I113" s="19"/>
+      <c r="I113" s="19" t="s">
+        <v>355</v>
+      </c>
       <c r="J113" s="24">
         <v>2</v>
       </c>
@@ -8181,22 +8189,22 @@
   </sheetData>
   <sheetProtection sheet="1" insertRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="D122">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152 C2:C124 C126:C146">
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:C151">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C147">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K152" xr:uid="{44DEFA60-CD9D-49B1-9B1E-F329372B473B}">

--- a/docs/KOSTAL_ModBus_Specifications.xlsx
+++ b/docs/KOSTAL_ModBus_Specifications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Symcon\modules\JoT.KPP\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2874B6E8-4819-4472-815E-83D13FE2CDC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4FCBE8-32C7-41D2-8AEF-81B4C40B992B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="20" windowWidth="18960" windowHeight="11330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1365,9 +1365,6 @@
     <t>BTmaxChargeCurrent</t>
   </si>
   <si>
-    <t>BTCrossCapacity</t>
-  </si>
-  <si>
     <t>BTManufacturer</t>
   </si>
   <si>
@@ -1762,6 +1759,9 @@
   </si>
   <si>
     <t>$MB_BigEndian</t>
+  </si>
+  <si>
+    <t>BTGrossCapacity</t>
   </si>
 </sst>
 </file>
@@ -3077,8 +3077,8 @@
   <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3112,7 +3112,7 @@
         <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>92</v>
@@ -3124,7 +3124,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>93</v>
@@ -3176,7 +3176,7 @@
         <v>133</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="3" t="s">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="3" t="s">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="3" t="s">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="3" t="s">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J12" s="24">
         <v>8</v>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="3" t="s">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J13" s="24">
         <v>8</v>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J18" s="24">
         <v>8</v>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J19" s="24">
         <v>8</v>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J20" s="24">
         <v>2</v>
@@ -3726,7 +3726,7 @@
         <v>133</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
@@ -3794,11 +3794,11 @@
         <v>133</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>128</v>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J23" s="24">
         <v>2</v>
@@ -3829,7 +3829,7 @@
         <v>134</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
@@ -3864,7 +3864,7 @@
         <v>134</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
@@ -3899,7 +3899,7 @@
         <v>134</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
@@ -3934,7 +3934,7 @@
         <v>134</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
@@ -3969,7 +3969,7 @@
         <v>134</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
@@ -4004,7 +4004,7 @@
         <v>134</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
@@ -4039,7 +4039,7 @@
         <v>134</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
@@ -4074,7 +4074,7 @@
         <v>138</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
@@ -4138,7 +4138,7 @@
         <v>134</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
@@ -4171,7 +4171,7 @@
         <v>133</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
@@ -4671,14 +4671,14 @@
         <v>190</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>222</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>118</v>
@@ -4771,7 +4771,7 @@
         <v>133</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
@@ -4934,7 +4934,7 @@
         <v>137</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
@@ -4965,7 +4965,7 @@
         <v>137</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
@@ -4998,7 +4998,7 @@
         <v>137</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
@@ -5031,7 +5031,7 @@
         <v>137</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
@@ -5066,7 +5066,7 @@
         <v>137</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
@@ -5101,7 +5101,7 @@
         <v>137</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
@@ -5136,7 +5136,7 @@
         <v>137</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
@@ -5169,7 +5169,7 @@
         <v>137</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
@@ -5202,7 +5202,7 @@
         <v>137</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
@@ -5237,7 +5237,7 @@
         <v>137</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
@@ -5272,7 +5272,7 @@
         <v>137</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
@@ -5307,7 +5307,7 @@
         <v>137</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
@@ -5340,7 +5340,7 @@
         <v>137</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
@@ -5373,7 +5373,7 @@
         <v>137</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
@@ -5408,7 +5408,7 @@
         <v>137</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
@@ -5443,7 +5443,7 @@
         <v>137</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
@@ -5478,7 +5478,7 @@
         <v>137</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
@@ -5511,7 +5511,7 @@
         <v>137</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
@@ -5546,7 +5546,7 @@
         <v>137</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
@@ -5581,7 +5581,7 @@
         <v>137</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
@@ -5616,7 +5616,7 @@
         <v>138</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
@@ -5649,7 +5649,7 @@
         <v>138</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
@@ -5684,7 +5684,7 @@
         <v>138</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
@@ -5717,7 +5717,7 @@
         <v>138</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
@@ -5750,7 +5750,7 @@
         <v>138</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
@@ -5785,7 +5785,7 @@
         <v>138</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
@@ -5818,7 +5818,7 @@
         <v>138</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
@@ -5851,7 +5851,7 @@
         <v>138</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
@@ -5886,7 +5886,7 @@
         <v>138</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
@@ -5919,7 +5919,7 @@
         <v>139</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
@@ -5954,7 +5954,7 @@
         <v>139</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
@@ -5989,7 +5989,7 @@
         <v>139</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
@@ -6024,7 +6024,7 @@
         <v>139</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
@@ -6071,7 +6071,7 @@
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J90" s="24">
         <v>32</v>
@@ -6096,7 +6096,7 @@
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="3" t="s">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J93" s="24">
         <v>8</v>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J94" s="24">
         <v>8</v>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J95" s="24">
         <v>8</v>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="3" t="s">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J97" s="24">
         <v>8</v>
@@ -6329,7 +6329,7 @@
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J98" s="24">
         <v>8</v>
@@ -6347,14 +6347,14 @@
         <v>512</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>223</v>
+        <v>355</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>119</v>
@@ -6364,7 +6364,7 @@
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J99" s="24">
         <v>2</v>
@@ -6389,10 +6389,10 @@
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>113</v>
@@ -6415,7 +6415,7 @@
         <v>515</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>160</v>
@@ -6446,10 +6446,10 @@
         <v>517</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
@@ -6461,7 +6461,7 @@
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J102" s="24">
         <v>8</v>
@@ -6479,10 +6479,10 @@
         <v>525</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
@@ -6510,14 +6510,14 @@
         <v>527</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="3" t="s">
@@ -6541,14 +6541,14 @@
         <v>529</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>126</v>
@@ -6560,7 +6560,7 @@
         <v>1E-3</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J105" s="24">
         <v>2</v>
@@ -6584,10 +6584,10 @@
         <v>169</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>124</v>
@@ -6618,11 +6618,11 @@
         <v>132</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="3" t="s">
@@ -6646,17 +6646,17 @@
         <v>533</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C108" s="12" t="s">
         <v>295</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>296</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>113</v>
@@ -6694,7 +6694,7 @@
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J109" s="24">
         <v>16</v>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="3" t="s">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J110" s="24">
         <v>16</v>
@@ -6751,7 +6751,7 @@
         <v>200</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>77</v>
@@ -6785,11 +6785,11 @@
         <v>136</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="3" t="s">
@@ -6819,10 +6819,10 @@
         <v>207</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>126</v>
@@ -6834,7 +6834,7 @@
         <v>1E-3</v>
       </c>
       <c r="I113" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J113" s="24">
         <v>2</v>
@@ -6855,11 +6855,11 @@
         <v>136</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="3" t="s">
@@ -6918,17 +6918,17 @@
         <v>583</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F116" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>114</v>
@@ -6951,10 +6951,10 @@
         <v>585</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
@@ -6982,10 +6982,10 @@
         <v>586</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
@@ -7013,10 +7013,10 @@
         <v>588</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J120" s="24">
         <v>32</v>
@@ -7094,7 +7094,7 @@
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J121" s="24">
         <v>32</v>
@@ -7112,16 +7112,16 @@
         <v>832</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C122" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D122" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D122" s="4" t="s">
-        <v>300</v>
-      </c>
       <c r="E122" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>124</v>
@@ -7149,14 +7149,14 @@
         <v>833</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F123" s="4"/>
       <c r="G123" s="4" t="s">
@@ -7180,16 +7180,16 @@
         <v>1024</v>
       </c>
       <c r="B124" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="D124" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="D124" s="4" t="s">
-        <v>307</v>
-      </c>
       <c r="E124" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>124</v>
@@ -7217,14 +7217,14 @@
         <v>1025</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="4" t="s">
@@ -7248,20 +7248,20 @@
         <v>1026</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>124</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H126" s="20">
         <v>1E-3</v>
@@ -7274,7 +7274,7 @@
         <v>107</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M126" s="5">
         <v>1.44</v>
@@ -7285,20 +7285,20 @@
         <v>1028</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>116</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H127" s="20"/>
       <c r="I127" s="20"/>
@@ -7309,7 +7309,7 @@
         <v>107</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M127" s="5">
         <v>1.44</v>
@@ -7320,20 +7320,20 @@
         <v>1030</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>116</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H128" s="20"/>
       <c r="I128" s="20"/>
@@ -7344,7 +7344,7 @@
         <v>107</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M128" s="5">
         <v>1.44</v>
@@ -7355,20 +7355,20 @@
         <v>1032</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>118</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H129" s="20"/>
       <c r="I129" s="20"/>
@@ -7379,7 +7379,7 @@
         <v>107</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M129" s="5">
         <v>1.44</v>
@@ -7390,20 +7390,20 @@
         <v>1034</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>124</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H130" s="20">
         <v>1E-3</v>
@@ -7416,7 +7416,7 @@
         <v>107</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M130" s="5">
         <v>1.44</v>
@@ -7427,20 +7427,20 @@
         <v>1036</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>116</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H131" s="20"/>
       <c r="I131" s="20"/>
@@ -7451,7 +7451,7 @@
         <v>107</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M131" s="5">
         <v>1.44</v>
@@ -7462,20 +7462,20 @@
         <v>1038</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>124</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H132" s="20">
         <v>1E-3</v>
@@ -7488,7 +7488,7 @@
         <v>107</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M132" s="5">
         <v>1.44</v>
@@ -7499,20 +7499,20 @@
         <v>1040</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>124</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H133" s="20">
         <v>1E-3</v>
@@ -7525,7 +7525,7 @@
         <v>107</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M133" s="5">
         <v>1.44</v>
@@ -7536,20 +7536,20 @@
         <v>1042</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>116</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H134" s="20"/>
       <c r="I134" s="20"/>
@@ -7560,7 +7560,7 @@
         <v>107</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M134" s="5">
         <v>1.44</v>
@@ -7571,20 +7571,20 @@
         <v>1044</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>116</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H135" s="20"/>
       <c r="I135" s="20"/>
@@ -7595,7 +7595,7 @@
         <v>107</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M135" s="5">
         <v>1.44</v>
@@ -7619,7 +7619,7 @@
         <v>126</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H136" s="19">
         <v>1E-3</v>
@@ -7654,7 +7654,7 @@
         <v>126</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H137" s="19">
         <v>1E-3</v>
@@ -7689,7 +7689,7 @@
         <v>126</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H138" s="19">
         <v>1E-3</v>
@@ -7724,7 +7724,7 @@
         <v>126</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H139" s="19">
         <v>1E-3</v>
@@ -7759,7 +7759,7 @@
         <v>126</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H140" s="19">
         <v>1E-3</v>
@@ -7784,7 +7784,7 @@
         <v>138</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4" t="s">
@@ -7794,7 +7794,7 @@
         <v>126</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H141" s="19">
         <v>1E-3</v>
@@ -7819,7 +7819,7 @@
         <v>138</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4" t="s">
@@ -7829,7 +7829,7 @@
         <v>126</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H142" s="19">
         <v>1E-3</v>
@@ -7854,7 +7854,7 @@
         <v>138</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4" t="s">
@@ -7864,7 +7864,7 @@
         <v>126</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H143" s="19">
         <v>1E-3</v>
@@ -7889,7 +7889,7 @@
         <v>138</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4" t="s">
@@ -7899,7 +7899,7 @@
         <v>126</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H144" s="19">
         <v>1E-3</v>
@@ -7934,7 +7934,7 @@
         <v>126</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H145" s="19">
         <v>1E-3</v>
@@ -7959,7 +7959,7 @@
         <v>138</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4" t="s">
@@ -7969,7 +7969,7 @@
         <v>124</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H146" s="19">
         <v>1E-3</v>
@@ -7991,20 +7991,20 @@
         <v>1068</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>126</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H147" s="20">
         <v>1E-3</v>
@@ -8026,14 +8026,14 @@
         <v>1070</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F148" s="4"/>
       <c r="G148" s="4" t="s">
@@ -8057,20 +8057,20 @@
         <v>1076</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>124</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H149" s="20">
         <v>1E-3</v>
@@ -8092,20 +8092,20 @@
         <v>1078</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>124</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H150" s="20">
         <v>1E-3</v>
@@ -8127,14 +8127,14 @@
         <v>1080</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F151" s="4"/>
       <c r="G151" s="4" t="s">

--- a/docs/KOSTAL_ModBus_Specifications.xlsx
+++ b/docs/KOSTAL_ModBus_Specifications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Symcon\modules\JoT.KPP\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4FCBE8-32C7-41D2-8AEF-81B4C40B992B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDAAB9F-3BD0-480D-9ED4-792BD4BD1187}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="20" windowWidth="18960" windowHeight="11330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3077,8 +3077,8 @@
   <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M120" sqref="M120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="5">
-        <v>1.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="5">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -3649,7 +3649,7 @@
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="5">
-        <v>1.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="L90" s="4"/>
       <c r="M90" s="5">
-        <v>1.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="L109" s="4"/>
       <c r="M109" s="5">
-        <v>1.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="L120" s="4"/>
       <c r="M120" s="5">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.35">
@@ -7104,7 +7104,7 @@
       </c>
       <c r="L121" s="4"/>
       <c r="M121" s="5">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.35">

--- a/docs/KOSTAL_ModBus_Specifications.xlsx
+++ b/docs/KOSTAL_ModBus_Specifications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Symcon\modules\JoT.KPP\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IP-Symcon\SymconData\modules\JoT.KPP\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDAAB9F-3BD0-480D-9ED4-792BD4BD1187}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35A2B51-3D3D-4F33-9FA5-1570726342C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="20" windowWidth="18960" windowHeight="11330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="349">
   <si>
     <r>
       <rPr>
@@ -1144,27 +1144,6 @@
   </si>
   <si>
     <t>Total DC Power from PV strings</t>
-  </si>
-  <si>
-    <t>Surplus</t>
-  </si>
-  <si>
-    <t>SPCharge</t>
-  </si>
-  <si>
-    <t>SPFeedin</t>
-  </si>
-  <si>
-    <t>SPReduction</t>
-  </si>
-  <si>
-    <t>PV surplus battery charging</t>
-  </si>
-  <si>
-    <t>PV surplus feed in</t>
-  </si>
-  <si>
-    <t>PV surplus reduction</t>
   </si>
   <si>
     <t>FWVersion</t>
@@ -2037,6 +2016,66 @@
   <dxfs count="24">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2655,66 +2694,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2729,25 +2708,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{891475A2-4FB2-4681-B914-8DF59649A8A5}" name="Tabelle1" displayName="Tabelle1" ref="A1:M152" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="A1:M152" xr:uid="{67CFC5ED-3DF2-4325-8BB0-7109E22EA653}"/>
-  <sortState ref="A2:M152">
-    <sortCondition ref="A1:A152"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{891475A2-4FB2-4681-B914-8DF59649A8A5}" name="Tabelle1" displayName="Tabelle1" ref="A1:M149" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="A1:M149" xr:uid="{67CFC5ED-3DF2-4325-8BB0-7109E22EA653}"/>
+  <sortState ref="A2:M149">
+    <sortCondition ref="A1:A149"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{9997AB42-D315-4920-ABD3-63BF9B542479}" name="Address" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{67E022DD-FFB2-4554-9D80-29B6AA2D8BF9}" name="Group" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{F9B93E8D-86B3-4B2B-B0F3-37EFA4BAC80F}" name="Ident" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{19AE23B1-4B73-425D-B057-6DA5633287A1}" name="ScaleIdent" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{D4274189-8352-4237-A5EC-8978C7CCE623}" name="Name" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{3F315A03-DBBC-4EEE-A147-0CD65AD4C555}" name="Profile" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{F24BF87B-55D8-49EA-83E7-DF00F2B87F83}" name="VarType" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{F1CAE169-D78E-4F13-925D-EB394D9C70FB}" name="Factor" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{8C62C676-2CC7-4D4C-B133-9A861FB7819C}" name="MBType" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{B12D7364-1EDB-440B-9FC2-31E2C3FADF6E}" name="Quantity" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{9769FDF8-F134-4F7D-97E0-9FB704DEDEAF}" name="RFunction" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{2697D931-01F8-4871-AA39-B743702F9207}" name="WFunction" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{370C0678-26F2-4D02-BE87-0190FE344869}" name="FWVersion" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9997AB42-D315-4920-ABD3-63BF9B542479}" name="Address" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{67E022DD-FFB2-4554-9D80-29B6AA2D8BF9}" name="Group" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{F9B93E8D-86B3-4B2B-B0F3-37EFA4BAC80F}" name="Ident" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{19AE23B1-4B73-425D-B057-6DA5633287A1}" name="ScaleIdent" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{D4274189-8352-4237-A5EC-8978C7CCE623}" name="Name" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{3F315A03-DBBC-4EEE-A147-0CD65AD4C555}" name="Profile" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{F24BF87B-55D8-49EA-83E7-DF00F2B87F83}" name="VarType" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{F1CAE169-D78E-4F13-925D-EB394D9C70FB}" name="Factor" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{8C62C676-2CC7-4D4C-B133-9A861FB7819C}" name="MBType" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{B12D7364-1EDB-440B-9FC2-31E2C3FADF6E}" name="Quantity" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{9769FDF8-F134-4F7D-97E0-9FB704DEDEAF}" name="RFunction" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{2697D931-01F8-4871-AA39-B743702F9207}" name="WFunction" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{370C0678-26F2-4D02-BE87-0190FE344869}" name="FWVersion" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3074,11 +3053,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M120" sqref="M120"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L143" sqref="L143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3112,7 +3091,7 @@
         <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>92</v>
@@ -3124,7 +3103,7 @@
         <v>125</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>93</v>
@@ -3136,7 +3115,7 @@
         <v>109</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -3176,7 +3155,7 @@
         <v>133</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
@@ -3256,161 +3235,177 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14">
-        <v>0</v>
+      <c r="A6" s="15">
+        <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>158</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="3"/>
+      <c r="J6" s="24">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="9">
-        <v>1.42</v>
+      <c r="M6" s="5">
+        <v>1.44</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
-        <v>0</v>
+      <c r="A7" s="15">
+        <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>159</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
         <v>113</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="3"/>
+      <c r="J7" s="24">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="9">
-        <v>1.42</v>
+      <c r="M7" s="5">
+        <v>1.44</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
-        <v>0</v>
+      <c r="A8" s="15">
+        <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="3" t="s">
         <v>113</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="3"/>
+      <c r="J8" s="24">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="L8" s="3"/>
-      <c r="M8" s="9">
-        <v>1.42</v>
+      <c r="M8" s="5">
+        <v>1.44</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="I9" s="19" t="s">
+        <v>347</v>
+      </c>
       <c r="J9" s="24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="4"/>
       <c r="M9" s="5">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="I10" s="19" t="s">
+        <v>347</v>
+      </c>
       <c r="J10" s="24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="4"/>
       <c r="M10" s="5">
-        <v>1.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="3" t="s">
@@ -3424,35 +3419,33 @@
       <c r="K11" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="4"/>
       <c r="M11" s="5">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>324</v>
+        <v>1</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H12" s="19"/>
-      <c r="I12" s="19" t="s">
-        <v>354</v>
-      </c>
+      <c r="I12" s="19"/>
       <c r="J12" s="24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>107</v>
@@ -3464,50 +3457,48 @@
     </row>
     <row r="13" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>343</v>
+        <v>2</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H13" s="19"/>
-      <c r="I13" s="19" t="s">
-        <v>354</v>
-      </c>
+      <c r="I13" s="19"/>
       <c r="J13" s="24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>107</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="5">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="3" t="s">
@@ -3516,69 +3507,73 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>107</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="5">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="I15" s="19" t="s">
+        <v>347</v>
+      </c>
       <c r="J15" s="24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>107</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="5">
-        <v>1.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
+      <c r="I16" s="19" t="s">
+        <v>347</v>
+      </c>
       <c r="J16" s="24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>107</v>
@@ -3590,24 +3585,26 @@
     </row>
     <row r="17" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="3" t="s">
         <v>113</v>
       </c>
       <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="I17" s="19" t="s">
+        <v>347</v>
+      </c>
       <c r="J17" s="24">
         <v>2</v>
       </c>
@@ -3616,66 +3613,68 @@
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="5">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>176</v>
+        <v>133</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="G18" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H18" s="19"/>
-      <c r="I18" s="19" t="s">
-        <v>354</v>
-      </c>
+      <c r="I18" s="19"/>
       <c r="J18" s="24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>107</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="5">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="G19" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19" t="s">
-        <v>354</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="I19" s="19"/>
       <c r="J19" s="24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>107</v>
@@ -3687,25 +3686,27 @@
     </row>
     <row r="20" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>178</v>
+        <v>133</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>337</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="4"/>
+        <v>345</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="G20" s="3" t="s">
         <v>113</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="J20" s="24">
         <v>2</v>
@@ -3720,25 +3721,27 @@
     </row>
     <row r="21" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>272</v>
+        <v>134</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>127</v>
+        <v>8</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" s="19"/>
+        <v>111</v>
+      </c>
+      <c r="H21" s="19">
+        <v>1E-3</v>
+      </c>
       <c r="I21" s="19"/>
       <c r="J21" s="24">
         <v>2</v>
@@ -3753,17 +3756,17 @@
     </row>
     <row r="22" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>124</v>
@@ -3788,28 +3791,28 @@
     </row>
     <row r="23" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>344</v>
+        <v>134</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19" t="s">
-        <v>354</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="H23" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="I23" s="19"/>
       <c r="J23" s="24">
         <v>2</v>
       </c>
@@ -3823,20 +3826,20 @@
     </row>
     <row r="24" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>111</v>
@@ -3858,20 +3861,20 @@
     </row>
     <row r="25" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>229</v>
+      <c r="C25" s="10" t="s">
+        <v>227</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>111</v>
@@ -3893,20 +3896,20 @@
     </row>
     <row r="26" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>111</v>
@@ -3928,17 +3931,17 @@
     </row>
     <row r="27" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>126</v>
@@ -3963,27 +3966,23 @@
     </row>
     <row r="28" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>234</v>
+        <v>138</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>126</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F28" s="4"/>
       <c r="G28" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H28" s="19">
-        <v>1E-3</v>
-      </c>
+      <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="24">
         <v>2</v>
@@ -3998,27 +3997,25 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>233</v>
+        <v>136</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>124</v>
+        <v>16</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H29" s="19">
-        <v>1E-3</v>
-      </c>
+      <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="24">
         <v>2</v>
@@ -4033,27 +4030,25 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>126</v>
+        <v>17</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H30" s="19">
-        <v>1E-3</v>
-      </c>
+      <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="24">
         <v>2</v>
@@ -4068,17 +4063,17 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="3" t="s">
@@ -4099,21 +4094,19 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>116</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F32" s="4"/>
       <c r="G32" s="3" t="s">
         <v>111</v>
       </c>
@@ -4132,20 +4125,20 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>235</v>
+        <v>136</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>116</v>
+        <v>20</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>111</v>
@@ -4165,19 +4158,21 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>274</v>
+        <v>136</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="G34" s="3" t="s">
         <v>111</v>
       </c>
@@ -4196,23 +4191,27 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="15">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>206</v>
+      <c r="C35" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="G35" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H35" s="19"/>
+      <c r="H35" s="19">
+        <v>1E-3</v>
+      </c>
       <c r="I35" s="19"/>
       <c r="J35" s="24">
         <v>2</v>
@@ -4227,20 +4226,20 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>111</v>
@@ -4260,17 +4259,17 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="15">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>118</v>
@@ -4293,17 +4292,17 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="15">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>191</v>
+      <c r="C38" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>124</v>
@@ -4328,17 +4327,17 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="15">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>203</v>
+      <c r="C39" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>121</v>
@@ -4361,17 +4360,17 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>118</v>
@@ -4394,17 +4393,17 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="15">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>124</v>
@@ -4429,17 +4428,17 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="15">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>121</v>
@@ -4462,25 +4461,27 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="15">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H43" s="19"/>
+      <c r="H43" s="19">
+        <v>1E-3</v>
+      </c>
       <c r="I43" s="19"/>
       <c r="J43" s="24">
         <v>2</v>
@@ -4495,20 +4496,20 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="15">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>111</v>
@@ -4530,25 +4531,27 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="15">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>205</v>
+      <c r="C45" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H45" s="19"/>
+      <c r="H45" s="19">
+        <v>1E-3</v>
+      </c>
       <c r="I45" s="19"/>
       <c r="J45" s="24">
         <v>2</v>
@@ -4563,27 +4566,25 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="15">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>136</v>
+        <v>296</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="4" t="s">
-        <v>30</v>
+      <c r="E46" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H46" s="19">
-        <v>1E-3</v>
-      </c>
+      <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="24">
         <v>2</v>
@@ -4593,32 +4594,28 @@
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="5">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="15">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>202</v>
+        <v>135</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>122</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F47" s="4"/>
       <c r="G47" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H47" s="19">
-        <v>1E-3</v>
-      </c>
+      <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="24">
         <v>2</v>
@@ -4633,27 +4630,25 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="15">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>195</v>
+        <v>135</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H48" s="19">
-        <v>1E-3</v>
-      </c>
+      <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="24">
         <v>2</v>
@@ -4668,20 +4663,20 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="15">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>222</v>
+        <v>133</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>266</v>
       </c>
       <c r="D49" s="4"/>
-      <c r="E49" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>118</v>
+      <c r="E49" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>111</v>
@@ -4696,22 +4691,22 @@
       </c>
       <c r="L49" s="4"/>
       <c r="M49" s="5">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="15">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>215</v>
+        <v>132</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="3" t="s">
@@ -4732,20 +4727,20 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="15">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>111</v>
@@ -4765,20 +4760,20 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="15">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>273</v>
+        <v>135</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>111</v>
@@ -4798,19 +4793,21 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="15">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>158</v>
+        <v>135</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F53" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="G53" s="3" t="s">
         <v>111</v>
       </c>
@@ -4829,21 +4826,19 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="15">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>131</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F54" s="4"/>
       <c r="G54" s="3" t="s">
         <v>111</v>
       </c>
@@ -4862,20 +4857,20 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="15">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>117</v>
+        <v>39</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>111</v>
@@ -4895,20 +4890,20 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="15">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>111</v>
@@ -4928,23 +4923,27 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="15">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F57" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="G57" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H57" s="19"/>
+      <c r="H57" s="19">
+        <v>1E-3</v>
+      </c>
       <c r="I57" s="19"/>
       <c r="J57" s="24">
         <v>2</v>
@@ -4959,25 +4958,27 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="15">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H58" s="19"/>
+      <c r="H58" s="19">
+        <v>1E-3</v>
+      </c>
       <c r="I58" s="19"/>
       <c r="J58" s="24">
         <v>2</v>
@@ -4992,25 +4993,27 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="15">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H59" s="19"/>
+      <c r="H59" s="19">
+        <v>1E-3</v>
+      </c>
       <c r="I59" s="19"/>
       <c r="J59" s="24">
         <v>2</v>
@@ -5025,27 +5028,25 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="15">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H60" s="19">
-        <v>1E-3</v>
-      </c>
+      <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="24">
         <v>2</v>
@@ -5060,27 +5061,25 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="15">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H61" s="19">
-        <v>1E-3</v>
-      </c>
+      <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="24">
         <v>2</v>
@@ -5095,20 +5094,20 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="15">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>111</v>
@@ -5130,25 +5129,27 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="15">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H63" s="19"/>
+      <c r="H63" s="19">
+        <v>1E-3</v>
+      </c>
       <c r="I63" s="19"/>
       <c r="J63" s="24">
         <v>2</v>
@@ -5163,25 +5164,27 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="15">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H64" s="19"/>
+      <c r="H64" s="19">
+        <v>1E-3</v>
+      </c>
       <c r="I64" s="19"/>
       <c r="J64" s="24">
         <v>2</v>
@@ -5196,27 +5199,25 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="15">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H65" s="19">
-        <v>1E-3</v>
-      </c>
+      <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="24">
         <v>2</v>
@@ -5231,27 +5232,25 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="15">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H66" s="19">
-        <v>1E-3</v>
-      </c>
+      <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="24">
         <v>2</v>
@@ -5266,20 +5265,20 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="15">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>111</v>
@@ -5301,25 +5300,27 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="15">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H68" s="19"/>
+      <c r="H68" s="19">
+        <v>1E-3</v>
+      </c>
       <c r="I68" s="19"/>
       <c r="J68" s="24">
         <v>2</v>
@@ -5334,25 +5335,27 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="15">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H69" s="19"/>
+      <c r="H69" s="19">
+        <v>1E-3</v>
+      </c>
       <c r="I69" s="19"/>
       <c r="J69" s="24">
         <v>2</v>
@@ -5367,27 +5370,25 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="15">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H70" s="19">
-        <v>1E-3</v>
-      </c>
+      <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="24">
         <v>2</v>
@@ -5402,20 +5403,20 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="15">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>111</v>
@@ -5437,20 +5438,20 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="15">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>111</v>
@@ -5472,25 +5473,27 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="15">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H73" s="19"/>
+      <c r="H73" s="19">
+        <v>1E-3</v>
+      </c>
       <c r="I73" s="19"/>
       <c r="J73" s="24">
         <v>2</v>
@@ -5505,27 +5508,25 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="15">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H74" s="19">
-        <v>1E-3</v>
-      </c>
+      <c r="H74" s="19"/>
       <c r="I74" s="19"/>
       <c r="J74" s="24">
         <v>2</v>
@@ -5540,20 +5541,20 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="15">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>111</v>
@@ -5575,27 +5576,25 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="15">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H76" s="19">
-        <v>1E-3</v>
-      </c>
+      <c r="H76" s="19"/>
       <c r="I76" s="19"/>
       <c r="J76" s="24">
         <v>2</v>
@@ -5610,17 +5609,17 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="15">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>118</v>
@@ -5643,17 +5642,17 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="15">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>124</v>
@@ -5678,17 +5677,17 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="15">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>121</v>
@@ -5711,17 +5710,17 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="15">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>118</v>
@@ -5744,17 +5743,17 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="15">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>124</v>
@@ -5779,17 +5778,17 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="15">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>121</v>
@@ -5812,25 +5811,27 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="15">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>259</v>
+        <v>139</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H83" s="19"/>
+      <c r="H83" s="19">
+        <v>1E-3</v>
+      </c>
       <c r="I83" s="19"/>
       <c r="J83" s="24">
         <v>2</v>
@@ -5845,20 +5846,20 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="15">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>266</v>
+        <v>139</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>111</v>
@@ -5880,25 +5881,27 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="15">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C85" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>270</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H85" s="19"/>
+      <c r="H85" s="19">
+        <v>1E-3</v>
+      </c>
       <c r="I85" s="19"/>
       <c r="J85" s="24">
         <v>2</v>
@@ -5913,17 +5916,17 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="15">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>126</v>
@@ -5948,65 +5951,59 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="15">
-        <v>322</v>
+        <v>384</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>276</v>
+        <v>132</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>126</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="F87" s="4"/>
       <c r="G87" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H87" s="19">
-        <v>1E-3</v>
-      </c>
-      <c r="I87" s="19"/>
+        <v>115</v>
+      </c>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19" t="s">
+        <v>347</v>
+      </c>
       <c r="J87" s="24">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="K87" s="4" t="s">
         <v>107</v>
       </c>
       <c r="L87" s="4"/>
       <c r="M87" s="5">
-        <v>1.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="15">
-        <v>324</v>
+        <v>416</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>277</v>
+        <v>132</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>126</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="F88" s="4"/>
       <c r="G88" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H88" s="19">
-        <v>1E-3</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="H88" s="19"/>
       <c r="I88" s="19"/>
       <c r="J88" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K88" s="4" t="s">
         <v>107</v>
@@ -6018,30 +6015,26 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="15">
-        <v>326</v>
+        <v>418</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>278</v>
+        <v>132</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="D89" s="4"/>
-      <c r="E89" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>126</v>
-      </c>
+      <c r="E89" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F89" s="4"/>
       <c r="G89" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H89" s="19">
-        <v>1E-3</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="H89" s="19"/>
       <c r="I89" s="19"/>
       <c r="J89" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>107</v>
@@ -6053,17 +6046,17 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="15">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="3" t="s">
@@ -6071,41 +6064,43 @@
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="J90" s="24">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="K90" s="4" t="s">
         <v>107</v>
       </c>
       <c r="L90" s="4"/>
       <c r="M90" s="5">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="15">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>348</v>
+        <v>70</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
+      <c r="I91" s="19" t="s">
+        <v>347</v>
+      </c>
       <c r="J91" s="24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>107</v>
@@ -6117,26 +6112,28 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="15">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D92" s="4"/>
-      <c r="E92" s="3" t="s">
-        <v>140</v>
+      <c r="E92" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
+      <c r="I92" s="19" t="s">
+        <v>347</v>
+      </c>
       <c r="J92" s="24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>107</v>
@@ -6148,28 +6145,26 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="15">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>69</v>
+        <v>342</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H93" s="19"/>
-      <c r="I93" s="19" t="s">
-        <v>354</v>
-      </c>
+      <c r="I93" s="19"/>
       <c r="J93" s="24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K93" s="4" t="s">
         <v>107</v>
@@ -6181,17 +6176,17 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="15">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="3" t="s">
@@ -6199,7 +6194,7 @@
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="J94" s="24">
         <v>8</v>
@@ -6214,17 +6209,17 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="15">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="3" t="s">
@@ -6232,7 +6227,7 @@
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="J95" s="24">
         <v>8</v>
@@ -6247,26 +6242,30 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="15">
-        <v>444</v>
+        <v>512</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>132</v>
+        <v>296</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>186</v>
+        <v>348</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="F96" s="4"/>
+        <v>327</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="G96" s="3" t="s">
         <v>113</v>
       </c>
       <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
+      <c r="I96" s="19" t="s">
+        <v>347</v>
+      </c>
       <c r="J96" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>107</v>
@@ -6278,28 +6277,28 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="15">
-        <v>446</v>
+        <v>514</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>187</v>
+        <v>135</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>202</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F97" s="4"/>
+        <v>321</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>319</v>
+      </c>
       <c r="G97" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H97" s="19"/>
-      <c r="I97" s="19" t="s">
-        <v>354</v>
-      </c>
+      <c r="I97" s="19"/>
       <c r="J97" s="24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K97" s="4" t="s">
         <v>107</v>
@@ -6311,28 +6310,26 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="15">
-        <v>454</v>
+        <v>515</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>132</v>
+        <v>296</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="D98" s="4"/>
-      <c r="E98" s="4" t="s">
-        <v>73</v>
+      <c r="E98" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H98" s="19"/>
-      <c r="I98" s="19" t="s">
-        <v>354</v>
-      </c>
+      <c r="I98" s="19"/>
       <c r="J98" s="24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K98" s="4" t="s">
         <v>107</v>
@@ -6344,30 +6341,28 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="15">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>355</v>
+        <v>216</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>119</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="F99" s="4"/>
       <c r="G99" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="J99" s="24">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K99" s="4" t="s">
         <v>107</v>
@@ -6379,28 +6374,26 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="15">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>209</v>
+        <v>296</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>326</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F100" s="4"/>
       <c r="G100" s="3" t="s">
         <v>113</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
       <c r="J100" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K100" s="4" t="s">
         <v>107</v>
@@ -6412,17 +6405,17 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="15">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="D101" s="4"/>
-      <c r="E101" s="3" t="s">
-        <v>159</v>
+      <c r="E101" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="3" t="s">
@@ -6443,28 +6436,32 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="15">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F102" s="4"/>
+        <v>328</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="G102" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H102" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="H102" s="19">
+        <v>1E-3</v>
+      </c>
       <c r="I102" s="19" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="J102" s="24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K102" s="4" t="s">
         <v>107</v>
@@ -6476,26 +6473,32 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="15">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>303</v>
+        <v>132</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D103" s="4"/>
+        <v>162</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>295</v>
+      </c>
       <c r="E103" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F103" s="4"/>
+        <v>332</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="G103" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H103" s="19"/>
+      <c r="H103" s="19">
+        <v>1E-3</v>
+      </c>
       <c r="I103" s="19"/>
       <c r="J103" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K103" s="4" t="s">
         <v>107</v>
@@ -6507,13 +6510,13 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="15">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>227</v>
+        <v>132</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
@@ -6521,216 +6524,218 @@
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
       <c r="J104" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K104" s="4" t="s">
         <v>107</v>
       </c>
       <c r="L104" s="4"/>
       <c r="M104" s="5">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="15">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>228</v>
+        <v>287</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>126</v>
+        <v>320</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H105" s="19">
-        <v>1E-3</v>
-      </c>
-      <c r="I105" s="19" t="s">
-        <v>354</v>
-      </c>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
       <c r="J105" s="24">
-        <v>2</v>
-      </c>
-      <c r="K105" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L105" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="M105" s="5">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="15">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>302</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>124</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F106" s="4"/>
       <c r="G106" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H106" s="19">
-        <v>1E-3</v>
-      </c>
-      <c r="I106" s="19"/>
+        <v>115</v>
+      </c>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19" t="s">
+        <v>347</v>
+      </c>
       <c r="J106" s="24">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K106" s="4" t="s">
         <v>107</v>
       </c>
       <c r="L106" s="4"/>
       <c r="M106" s="5">
-        <v>1.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="15">
-        <v>532</v>
+        <v>559</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>302</v>
+      <c r="C107" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
+      <c r="I107" s="19" t="s">
+        <v>347</v>
+      </c>
       <c r="J107" s="24">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K107" s="4" t="s">
         <v>107</v>
       </c>
       <c r="L107" s="4"/>
       <c r="M107" s="5">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="15">
-        <v>533</v>
+        <v>575</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="D108" s="4"/>
+        <v>136</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="E108" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>326</v>
+        <v>77</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H108" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="H108" s="19">
+        <v>1E-3</v>
+      </c>
       <c r="I108" s="19"/>
       <c r="J108" s="24">
         <v>1</v>
       </c>
-      <c r="K108" s="4"/>
-      <c r="L108" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="K108" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L108" s="4"/>
       <c r="M108" s="5">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="15">
-        <v>535</v>
+        <v>576</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>180</v>
+        <v>136</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H109" s="19"/>
-      <c r="I109" s="19" t="s">
-        <v>354</v>
-      </c>
+      <c r="I109" s="19"/>
       <c r="J109" s="24">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K109" s="4" t="s">
         <v>107</v>
       </c>
       <c r="L109" s="4"/>
       <c r="M109" s="5">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="15">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D110" s="4"/>
+        <v>200</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>294</v>
+      </c>
       <c r="E110" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="F110" s="4"/>
+        <v>286</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="G110" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H110" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="H110" s="19">
+        <v>1E-3</v>
+      </c>
       <c r="I110" s="19" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="J110" s="24">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K110" s="4" t="s">
         <v>107</v>
@@ -6742,29 +6747,23 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="15">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>300</v>
-      </c>
+      <c r="C111" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>124</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="F111" s="4"/>
       <c r="G111" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H111" s="19">
-        <v>1E-3</v>
-      </c>
+      <c r="H111" s="19"/>
       <c r="I111" s="19"/>
       <c r="J111" s="24">
         <v>1</v>
@@ -6774,28 +6773,32 @@
       </c>
       <c r="L111" s="4"/>
       <c r="M111" s="5">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="15">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>300</v>
+        <v>135</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="D112" s="4"/>
-      <c r="E112" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="F112" s="4"/>
+      <c r="E112" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="G112" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H112" s="19"/>
+      <c r="H112" s="19">
+        <v>1E-3</v>
+      </c>
       <c r="I112" s="19"/>
       <c r="J112" s="24">
         <v>1</v>
@@ -6805,61 +6808,55 @@
       </c>
       <c r="L112" s="4"/>
       <c r="M112" s="5">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="15">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>301</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>126</v>
+        <v>318</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H113" s="19">
-        <v>1E-3</v>
-      </c>
-      <c r="I113" s="19" t="s">
-        <v>354</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
       <c r="J113" s="24">
-        <v>2</v>
-      </c>
-      <c r="K113" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L113" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="M113" s="5">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="15">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>136</v>
+        <v>287</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
-        <v>341</v>
+        <v>78</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="3" t="s">
@@ -6870,37 +6867,33 @@
       <c r="J114" s="24">
         <v>1</v>
       </c>
-      <c r="K114" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="M114" s="5">
         <v>1.44</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="15">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>218</v>
+        <v>296</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>217</v>
       </c>
       <c r="D115" s="4"/>
-      <c r="E115" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>124</v>
-      </c>
+      <c r="E115" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F115" s="4"/>
       <c r="G115" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H115" s="19">
-        <v>1E-3</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="H115" s="19"/>
       <c r="I115" s="19"/>
       <c r="J115" s="24">
         <v>1</v>
@@ -6915,298 +6908,306 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="15">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C116" s="12" t="s">
         <v>296</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>325</v>
+        <v>103</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>326</v>
+        <v>130</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
       <c r="J116" s="24">
         <v>1</v>
       </c>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="K116" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L116" s="4"/>
       <c r="M116" s="5">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="15">
-        <v>585</v>
+        <v>768</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>297</v>
+        <v>132</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
+      <c r="I117" s="19" t="s">
+        <v>347</v>
+      </c>
       <c r="J117" s="24">
-        <v>1</v>
-      </c>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="K117" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L117" s="4"/>
       <c r="M117" s="5">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="15">
-        <v>586</v>
+        <v>800</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>303</v>
+        <v>132</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
+      <c r="I118" s="19" t="s">
+        <v>347</v>
+      </c>
       <c r="J118" s="24">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="K118" s="4" t="s">
         <v>107</v>
       </c>
       <c r="L118" s="4"/>
       <c r="M118" s="5">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="15">
-        <v>588</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D119" s="4"/>
+        <v>832</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="E119" s="4" t="s">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
+      <c r="H119" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="I119" s="20"/>
       <c r="J119" s="24">
         <v>1</v>
       </c>
-      <c r="K119" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="M119" s="5">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="15">
-        <v>768</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>190</v>
+        <v>833</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>292</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4" t="s">
-        <v>104</v>
+        <v>273</v>
       </c>
       <c r="F120" s="4"/>
-      <c r="G120" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19" t="s">
-        <v>354</v>
-      </c>
+      <c r="G120" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
       <c r="J120" s="24">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="K120" s="4" t="s">
         <v>107</v>
       </c>
       <c r="L120" s="4"/>
       <c r="M120" s="5">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="15">
-        <v>800</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D121" s="4"/>
+        <v>1024</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="E121" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F121" s="4"/>
-      <c r="G121" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19" t="s">
-        <v>354</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H121" s="20">
+        <v>1E-3</v>
+      </c>
+      <c r="I121" s="20"/>
       <c r="J121" s="24">
-        <v>32</v>
-      </c>
-      <c r="K121" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L121" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="M121" s="5">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="15">
-        <v>832</v>
+        <v>1025</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D122" s="4" t="s">
         <v>299</v>
       </c>
+      <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H122" s="20">
-        <v>1E-3</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H122" s="20"/>
       <c r="I122" s="20"/>
       <c r="J122" s="24">
         <v>1</v>
       </c>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="K122" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L122" s="4"/>
       <c r="M122" s="5">
         <v>1.44</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="15">
-        <v>833</v>
+        <v>1026</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F123" s="4"/>
+        <v>275</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="G123" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H123" s="20"/>
+        <v>277</v>
+      </c>
+      <c r="H123" s="20">
+        <v>1E-3</v>
+      </c>
       <c r="I123" s="20"/>
       <c r="J123" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K123" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L123" s="4"/>
+      <c r="L123" s="4" t="s">
+        <v>276</v>
+      </c>
       <c r="M123" s="5">
         <v>1.44</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="15">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="B124" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>306</v>
-      </c>
+      <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H124" s="20">
-        <v>1E-3</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="H124" s="20"/>
       <c r="I124" s="20"/>
       <c r="J124" s="24">
-        <v>1</v>
-      </c>
-      <c r="K124" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="L124" s="4" t="s">
-        <v>108</v>
+        <v>276</v>
       </c>
       <c r="M124" s="5">
         <v>1.44</v>
@@ -7214,58 +7215,60 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="15">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="F125" s="4"/>
+        <v>279</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="G125" s="4" t="s">
-        <v>114</v>
+        <v>277</v>
       </c>
       <c r="H125" s="20"/>
       <c r="I125" s="20"/>
       <c r="J125" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K125" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L125" s="4"/>
+      <c r="L125" s="4" t="s">
+        <v>276</v>
+      </c>
       <c r="M125" s="5">
         <v>1.44</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="15">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="H126" s="20">
-        <v>1E-3</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="H126" s="20"/>
       <c r="I126" s="20"/>
       <c r="J126" s="24">
         <v>2</v>
@@ -7274,7 +7277,7 @@
         <v>107</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="M126" s="5">
         <v>1.44</v>
@@ -7282,25 +7285,27 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="15">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="H127" s="20"/>
+        <v>277</v>
+      </c>
+      <c r="H127" s="20">
+        <v>1E-3</v>
+      </c>
       <c r="I127" s="20"/>
       <c r="J127" s="24">
         <v>2</v>
@@ -7309,7 +7314,7 @@
         <v>107</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="M127" s="5">
         <v>1.44</v>
@@ -7317,23 +7322,23 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="15">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>116</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H128" s="20"/>
       <c r="I128" s="20"/>
@@ -7344,7 +7349,7 @@
         <v>107</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="M128" s="5">
         <v>1.44</v>
@@ -7352,25 +7357,27 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="15">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="H129" s="20"/>
+        <v>277</v>
+      </c>
+      <c r="H129" s="20">
+        <v>1E-3</v>
+      </c>
       <c r="I129" s="20"/>
       <c r="J129" s="24">
         <v>2</v>
@@ -7379,7 +7386,7 @@
         <v>107</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="M129" s="5">
         <v>1.44</v>
@@ -7387,23 +7394,23 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="15">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>124</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H130" s="20">
         <v>1E-3</v>
@@ -7416,7 +7423,7 @@
         <v>107</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="M130" s="5">
         <v>1.44</v>
@@ -7424,23 +7431,23 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="15">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
-        <v>289</v>
+        <v>343</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>116</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H131" s="20"/>
       <c r="I131" s="20"/>
@@ -7451,7 +7458,7 @@
         <v>107</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="M131" s="5">
         <v>1.44</v>
@@ -7459,27 +7466,25 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="15">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="H132" s="20">
-        <v>1E-3</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="H132" s="20"/>
       <c r="I132" s="20"/>
       <c r="J132" s="24">
         <v>2</v>
@@ -7488,7 +7493,7 @@
         <v>107</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="M132" s="5">
         <v>1.44</v>
@@ -7496,130 +7501,128 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="15">
-        <v>1040</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D133" s="4"/>
+        <v>1046</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D133" s="3"/>
       <c r="E133" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>124</v>
+        <v>80</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="H133" s="20">
+        <v>277</v>
+      </c>
+      <c r="H133" s="19">
         <v>1E-3</v>
       </c>
-      <c r="I133" s="20"/>
+      <c r="I133" s="19"/>
       <c r="J133" s="24">
         <v>2</v>
       </c>
       <c r="K133" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L133" s="4" t="s">
-        <v>283</v>
-      </c>
+      <c r="L133" s="4"/>
       <c r="M133" s="5">
         <v>1.44</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="15">
-        <v>1042</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="D134" s="4"/>
+        <v>1048</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D134" s="3"/>
       <c r="E134" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>116</v>
+        <v>81</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="H134" s="20"/>
-      <c r="I134" s="20"/>
+        <v>277</v>
+      </c>
+      <c r="H134" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="I134" s="19"/>
       <c r="J134" s="24">
         <v>2</v>
       </c>
       <c r="K134" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L134" s="4" t="s">
-        <v>283</v>
-      </c>
+      <c r="L134" s="4"/>
       <c r="M134" s="5">
         <v>1.44</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="15">
-        <v>1044</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D135" s="4"/>
+        <v>1050</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D135" s="3"/>
       <c r="E135" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>116</v>
+        <v>82</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="H135" s="20"/>
-      <c r="I135" s="20"/>
+        <v>277</v>
+      </c>
+      <c r="H135" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="I135" s="19"/>
       <c r="J135" s="24">
         <v>2</v>
       </c>
       <c r="K135" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L135" s="4" t="s">
-        <v>283</v>
-      </c>
+      <c r="L135" s="4"/>
       <c r="M135" s="5">
         <v>1.44</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="15">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H136" s="19">
         <v>1E-3</v>
@@ -7638,23 +7641,23 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="15">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H137" s="19">
         <v>1E-3</v>
@@ -7673,23 +7676,23 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="15">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="D138" s="3"/>
+        <v>256</v>
+      </c>
+      <c r="D138" s="4"/>
       <c r="E138" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H138" s="19">
         <v>1E-3</v>
@@ -7708,23 +7711,23 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="16">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D139" s="7"/>
+        <v>253</v>
+      </c>
+      <c r="D139" s="8"/>
       <c r="E139" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H139" s="19">
         <v>1E-3</v>
@@ -7743,23 +7746,23 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="15">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D140" s="3"/>
+        <v>254</v>
+      </c>
+      <c r="D140" s="4"/>
       <c r="E140" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H140" s="19">
         <v>1E-3</v>
@@ -7778,23 +7781,23 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="15">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H141" s="19">
         <v>1E-3</v>
@@ -7813,23 +7816,23 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="15">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>260</v>
+        <v>136</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H142" s="19">
         <v>1E-3</v>
@@ -7843,28 +7846,28 @@
       </c>
       <c r="L142" s="4"/>
       <c r="M142" s="5">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="15">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H143" s="19">
         <v>1E-3</v>
@@ -7883,28 +7886,28 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="15">
-        <v>1062</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>262</v>
+        <v>1068</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F144" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F144" s="4" t="s">
         <v>126</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="H144" s="19">
+        <v>277</v>
+      </c>
+      <c r="H144" s="20">
         <v>1E-3</v>
       </c>
-      <c r="I144" s="19"/>
+      <c r="I144" s="20"/>
       <c r="J144" s="24">
         <v>2</v>
       </c>
@@ -7918,28 +7921,24 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="15">
-        <v>1064</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>136</v>
+        <v>1070</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>208</v>
+        <v>313</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>126</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="F145" s="4"/>
       <c r="G145" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="H145" s="19">
-        <v>1E-3</v>
-      </c>
-      <c r="I145" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
       <c r="J145" s="24">
         <v>2</v>
       </c>
@@ -7948,33 +7947,33 @@
       </c>
       <c r="L145" s="4"/>
       <c r="M145" s="5">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" s="15">
-        <v>1066</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>267</v>
+        <v>1076</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F146" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F146" s="4" t="s">
         <v>124</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="H146" s="19">
+        <v>277</v>
+      </c>
+      <c r="H146" s="20">
         <v>1E-3</v>
       </c>
-      <c r="I146" s="19"/>
+      <c r="I146" s="20"/>
       <c r="J146" s="24">
         <v>2</v>
       </c>
@@ -7988,23 +7987,23 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="15">
-        <v>1068</v>
+        <v>1078</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>321</v>
+        <v>297</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H147" s="20">
         <v>1E-3</v>
@@ -8023,17 +8022,17 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" s="15">
-        <v>1070</v>
+        <v>1080</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>320</v>
+        <v>297</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="F148" s="4"/>
       <c r="G148" s="4" t="s">
@@ -8042,7 +8041,7 @@
       <c r="H148" s="20"/>
       <c r="I148" s="20"/>
       <c r="J148" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K148" s="4" t="s">
         <v>107</v>
@@ -8053,170 +8052,69 @@
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A149" s="15">
-        <v>1076</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>124</v>
+      <c r="A149" s="14">
+        <v>1082</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="H149" s="20">
-        <v>1E-3</v>
-      </c>
-      <c r="I149" s="20"/>
-      <c r="J149" s="24">
-        <v>2</v>
+        <v>113</v>
+      </c>
+      <c r="H149" s="19"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="23">
+        <v>1</v>
       </c>
       <c r="K149" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L149" s="4"/>
-      <c r="M149" s="5">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A150" s="15">
-        <v>1078</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="H150" s="20">
-        <v>1E-3</v>
-      </c>
-      <c r="I150" s="20"/>
-      <c r="J150" s="24">
-        <v>2</v>
-      </c>
-      <c r="K150" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L150" s="4"/>
-      <c r="M150" s="5">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A151" s="15">
-        <v>1080</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H151" s="20"/>
-      <c r="I151" s="20"/>
-      <c r="J151" s="24">
-        <v>1</v>
-      </c>
-      <c r="K151" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L151" s="4"/>
-      <c r="M151" s="5">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A152" s="14">
-        <v>1082</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="23">
-        <v>1</v>
-      </c>
-      <c r="K152" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L152" s="3"/>
-      <c r="M152" s="9">
+      <c r="L149" s="3"/>
+      <c r="M149" s="9">
         <v>1.44</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" insertRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="D122">
-    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152 C2:C124 C126:C146">
-    <cfRule type="duplicateValues" dxfId="22" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C149:C151">
-    <cfRule type="duplicateValues" dxfId="21" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106">
-    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C147">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C124 C126:C146">
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K152" xr:uid="{44DEFA60-CD9D-49B1-9B1E-F329372B473B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K149" xr:uid="{44DEFA60-CD9D-49B1-9B1E-F329372B473B}">
       <formula1>"$FC_Read_Coil,$FC_Read_DiscreteInput,$FC_Read_HoldingRegisters,$FC_Read_InputRegisters"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L152" xr:uid="{ABC3A42B-FF9B-47FA-9A0D-B2F36DA3F476}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L149" xr:uid="{ABC3A42B-FF9B-47FA-9A0D-B2F36DA3F476}">
       <formula1>"$FC_Write_SingleCoil,$FC_Write_SingleHoldingRegister,$FC_Write_MultipleCoils,$FC_Write_MultipleHoldingRegisters"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G152" xr:uid="{B31872A6-5129-4597-A149-AB85DDA986AF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G149" xr:uid="{B31872A6-5129-4597-A149-AB85DDA986AF}">
       <formula1>"$VT_Boolean,$VT_UnsignedInteger,$VT_SignedInteger,$VT_Float,$VT_Real,$VT_String"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I152" xr:uid="{C5FFE52A-E439-4E4B-B5DB-E63D51D8D8BB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I149" xr:uid="{C5FFE52A-E439-4E4B-B5DB-E63D51D8D8BB}">
       <formula1>"$MB_BigEndian,$MB_BigEndian_ByteSwap,$MB_BigEndian_WordSwap,$MB_LittleEndian,$MB_LittleEndian_ByteSwap,$MB_LittleEndian_WordSwap"</formula1>
     </dataValidation>
   </dataValidations>
